--- a/삼성전자_2020-2024_재무분석_requests.xlsx
+++ b/삼성전자_2020-2024_재무분석_requests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,40 +451,60 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>자산총계</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>부채총계</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>자본총계</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>매출액</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>영업이익</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>당기순이익</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>수익성 상태</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>영업이익률</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>순이익률</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ROA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ROE</t>
         </is>
@@ -506,28 +526,44 @@
           <t>2020년 1분기</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>357457535000000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>91069812000000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>266387723000000</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>55325178000000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>6447345000000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>4884926000000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0883</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.0137</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>0.0183</v>
       </c>
     </row>
@@ -547,28 +583,44 @@
           <t>2020년 2분기(반기)</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>357959499000000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>88151682000000</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>269807817000000</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>52966142000000</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>8146292000000</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>5555083000000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1538</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1049</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.0155</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>0.0206</v>
       </c>
     </row>
@@ -588,28 +640,44 @@
           <t>2020년 3분기</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>375788742000000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>99652554000000</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>276136188000000</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>66964160000000</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>12353238000000</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>9360693000000</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1845</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1398</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.0249</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>0.0339</v>
       </c>
     </row>
@@ -629,28 +697,44 @@
           <t>2020년 4분기(사업보고서)</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>378235718000000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>102287702000000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>275948016000000</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>236806988000000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>35993876000000</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>26407832000000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1115</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.0698</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>0.09569999999999999</v>
       </c>
     </row>
@@ -670,28 +754,44 @@
           <t>2021년 1분기</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>392826274000000</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>118557683000000</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>274268591000000</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>65388503000000</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>9382868000000</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>7141685000000</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1435</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1092</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.0182</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>0.026</v>
       </c>
     </row>
@@ -711,28 +811,44 @@
           <t>2021년 2분기(반기)</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>384777669000000</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>102453403000000</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>282324266000000</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>63671585000000</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>12566745000000</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>9634486000000</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1974</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1513</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.025</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>0.0341</v>
       </c>
     </row>
@@ -752,28 +868,44 @@
           <t>2021년 3분기</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>410420718000000</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>113654600000000</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>296766118000000</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>73979187000000</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>15817531000000</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>12293331000000</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2138</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1662</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.03</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>0.0414</v>
       </c>
     </row>
@@ -793,28 +925,44 @@
           <t>2021년 4분기(사업보고서)</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>426621158000000</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>121721227000000</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>304899931000000</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>279604799000000</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>51633856000000</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>39907450000000</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1847</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1427</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.0935</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
         <v>0.1309</v>
       </c>
     </row>
@@ -834,28 +982,44 @@
           <t>2022년 1분기</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>439326959000000</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>124036040000000</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>315290919000000</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>77781498000000</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>14121409000000</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>11324628000000</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1816</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1456</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.0258</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>0.0359</v>
       </c>
     </row>
@@ -875,28 +1039,44 @@
           <t>2022년 2분기(반기)</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>448040650000000</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>120133986000000</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>327906664000000</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>77203607000000</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>14097045000000</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>11098805000000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1826</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.1438</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.0248</v>
       </c>
-      <c r="K11" t="n">
+      <c r="O11" t="n">
         <v>0.0338</v>
       </c>
     </row>
@@ -916,28 +1096,44 @@
           <t>2022년 3분기</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>470278409000000</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>125371520000000</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>344906889000000</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>76781680000000</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>10852045000000</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>9389198000000</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1413</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1223</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.02</v>
       </c>
-      <c r="K12" t="n">
+      <c r="O12" t="n">
         <v>0.0272</v>
       </c>
     </row>
@@ -957,28 +1153,44 @@
           <t>2022년 4분기(사업보고서)</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>448424507000000</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>93674903000000</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>354749604000000</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>302231360000000</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>43376630000000</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>55654077000000</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1435</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1841</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.1241</v>
       </c>
-      <c r="K13" t="n">
+      <c r="O13" t="n">
         <v>0.1569</v>
       </c>
     </row>
@@ -998,28 +1210,44 @@
           <t>2023년 1분기</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>454091777000000</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>94292361000000</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>359799416000000</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>63745371000000</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>640178000000</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>1574600000000</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.0035</v>
       </c>
-      <c r="K14" t="n">
+      <c r="O14" t="n">
         <v>0.0044</v>
       </c>
     </row>
@@ -1039,28 +1267,44 @@
           <t>2023년 2분기(반기)</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>448000552000000</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>89024926000000</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>358975626000000</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>60005533000000</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>668547000000</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1723571000000</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0287</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.0038</v>
       </c>
-      <c r="K15" t="n">
+      <c r="O15" t="n">
         <v>0.0048</v>
       </c>
     </row>
@@ -1080,28 +1324,44 @@
           <t>2023년 3분기</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>454466447000000</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>90573804000000</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>363892643000000</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>67404652000000</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>2433534000000</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>5844171000000</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0361</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0867</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.0129</v>
       </c>
-      <c r="K16" t="n">
+      <c r="O16" t="n">
         <v>0.0161</v>
       </c>
     </row>
@@ -1121,28 +1381,44 @@
           <t>2023년 4분기(사업보고서)</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>455905980000000</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>92228115000000</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>363677865000000</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>258935494000000</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>6566976000000</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>15487100000000</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0254</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0598</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.034</v>
       </c>
-      <c r="K17" t="n">
+      <c r="O17" t="n">
         <v>0.0426</v>
       </c>
     </row>
@@ -1162,28 +1438,44 @@
           <t>2024년 1분기</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>470899812000000</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>98983688000000</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>371916124000000</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>71915601000000</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>6606009000000</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>6754708000000</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0919</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0939</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.0143</v>
       </c>
-      <c r="K18" t="n">
+      <c r="O18" t="n">
         <v>0.0182</v>
       </c>
     </row>
@@ -1203,28 +1495,44 @@
           <t>2024년 2분기(반기)</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>485757698000000</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>102231027000000</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>383526671000000</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>74068302000000</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>10443878000000</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>9841345000000</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.0203</v>
       </c>
-      <c r="K19" t="n">
+      <c r="O19" t="n">
         <v>0.0257</v>
       </c>
     </row>
@@ -1244,28 +1552,44 @@
           <t>2024년 3분기</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>491307317000000</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>105025954000000</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>386281363000000</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>79098731000000</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>9183371000000</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>10100904000000</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0.1161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1277</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.0206</v>
       </c>
-      <c r="K20" t="n">
+      <c r="O20" t="n">
         <v>0.0261</v>
       </c>
     </row>
@@ -1285,29 +1609,501 @@
           <t>2024년 4분기(사업보고서)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>514531948000000</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>112339878000000</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>402192070000000</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>300870903000000</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>32725961000000</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>34451351000000</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0.1088</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1145</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.067</v>
       </c>
-      <c r="K21" t="n">
+      <c r="O21" t="n">
         <v>0.0857</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-Q1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025년 1분기</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>511228434915789.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>103442552936842.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>407785881978947.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>157587671584210.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12894264463157.89</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16901021673684.21</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1072</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0331</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.0414</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-Q2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025년 2분기</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>518654384103007.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>103363439573684.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>415290944529323.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>161144834239849.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12674397583458.64</v>
+      </c>
+      <c r="J23" t="n">
+        <v>17137166861654.14</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0.07870000000000001</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.1063</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0413</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-Q3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025년 3분기</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>526080333290225.6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>103284326210526.3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>422796007079699.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>164701996895488.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12454530703759.39</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17373312049624.06</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0756</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1055</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0411</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-Q4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025년 4분기</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>533506282477443.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>103205212847368.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>430301069630075.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>168259159551127.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12234663824060.15</v>
+      </c>
+      <c r="J25" t="n">
+        <v>17609457237593.98</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0727</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1047</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0409</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-Q1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2026년 1분기</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>540932231664661.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>103126099484210.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>437806132180451</v>
+      </c>
+      <c r="H26" t="n">
+        <v>171816322206766.9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12014796944360.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>17845602425563.91</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0699</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1039</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0408</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-Q2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2026년 2분기</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>548358180851879.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>103046986121052.6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>445311194730826.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>175373484862406</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11794930064661.65</v>
+      </c>
+      <c r="J27" t="n">
+        <v>18081747613533.84</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0673</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.1031</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0406</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-Q3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2026년 3분기</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>555784130039097.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>102967872757894.7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>452816257281202.9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>178930647518045.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11575063184962.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>18317892801503.76</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.1024</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0405</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-Q4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2026년 4분기</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>563210079226315.9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>102888759394736.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>460321319831578.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>182487810173684.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>11355196305263.15</v>
+      </c>
+      <c r="J29" t="n">
+        <v>18554037989473.69</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0622</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1017</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0329</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.0403</v>
       </c>
     </row>
   </sheetData>

--- a/삼성전자_2020-2024_재무분석_requests.xlsx
+++ b/삼성전자_2020-2024_재무분석_requests.xlsx
@@ -518,12 +518,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2020-1분기</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2020년 1분기</t>
+          <t>1분기</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-2분기</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2020년 2분기(반기)</t>
+          <t>2분기</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-3분기</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2020년 3분기</t>
+          <t>3분기</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-4분기</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2020년 4분기(사업보고서)</t>
+          <t>4분기</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-1분기</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021년 1분기</t>
+          <t>1분기</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-2분기</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021년 2분기(반기)</t>
+          <t>2분기</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -860,12 +860,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-3분기</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021년 3분기</t>
+          <t>3분기</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -917,12 +917,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-4분기</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021년 4분기(사업보고서)</t>
+          <t>4분기</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -974,12 +974,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-1분기</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022년 1분기</t>
+          <t>1분기</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-2분기</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022년 2분기(반기)</t>
+          <t>2분기</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-3분기</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022년 3분기</t>
+          <t>3분기</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-4분기</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022년 4분기(사업보고서)</t>
+          <t>4분기</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-1분기</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023년 1분기</t>
+          <t>1분기</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-2분기</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023년 2분기(반기)</t>
+          <t>2분기</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-3분기</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023년 3분기</t>
+          <t>3분기</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-4분기</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2023년 4분기(사업보고서)</t>
+          <t>4분기</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-1분기</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024년 1분기</t>
+          <t>1분기</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-2분기</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024년 2분기(반기)</t>
+          <t>2분기</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-3분기</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024년 3분기</t>
+          <t>3분기</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-4분기</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024년 4분기(사업보고서)</t>
+          <t>4분기</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-Q1</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025년 1분기</t>
+          <t>1분기</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1715,12 +1715,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-Q2</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025년 2분기</t>
+          <t>2분기</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-Q3</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025년 3분기</t>
+          <t>3분기</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-Q4</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025년 4분기</t>
+          <t>4분기</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-Q1</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026년 1분기</t>
+          <t>1분기</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-Q2</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026년 2분기</t>
+          <t>2분기</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-Q3</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2026년 3분기</t>
+          <t>3분기</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-Q4</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2026년 4분기</t>
+          <t>4분기</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">

--- a/삼성전자_2020-2024_재무분석_requests.xlsx
+++ b/삼성전자_2020-2024_재무분석_requests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2106,6 +2106,1602 @@
         <v>0.0403</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1분기</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>67142787000000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>18895063000000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>48247724000000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7198892000000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>800301000000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>649050000000</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1112</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0902</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0135</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2분기</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>69259297000000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>19856421000000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>49402876000000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8606534000000</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1946715000000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1264260000000</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>0.2262</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1469</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0183</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0256</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3분기</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>69267173000000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>18768114000000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50499059000000</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8128767000000</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1299696000000</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1077862000000</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0.1599</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1326</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0213</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4분기</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>71173853000000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>19264756000000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>51909097000000</v>
+      </c>
+      <c r="H33" t="n">
+        <v>31900418000000</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5012624000000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4758914000000</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0.1571</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.1492</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0669</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0917</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1분기</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>75118008000000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>22739419000000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>52378589000000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8494188000000</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1324421000000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>992640000000</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>0.1559</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2분기</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>77717897000000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>22839883000000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>54878014000000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10321671000000</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2694574000000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1988424000000</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0.2611</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.1926</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0362</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3분기</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>83269048000000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>24554602000000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>58714446000000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>11805324000000</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4171821000000</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3315252000000</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.2808</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0398</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0565</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4분기</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>96386474000000</v>
+      </c>
+      <c r="F37" t="n">
+        <v>34195416000000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>62191058000000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>42997792000000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12410340000000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9616188000000</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>0.2886</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.2236</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0998</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.1546</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1분기</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>99466056000000</v>
+      </c>
+      <c r="F38" t="n">
+        <v>36067417000000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>63398639000000</v>
+      </c>
+      <c r="H38" t="n">
+        <v>12155653000000</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2859615000000</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1982928000000</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>0.2352</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.1631</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0199</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2분기</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>104147622000000</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37387462000000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>66760160000000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>13811001000000</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4192617000000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2876821000000</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3036</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.2083</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0431</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3분기</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>109545800000000</v>
+      </c>
+      <c r="F40" t="n">
+        <v>40822614000000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>68723186000000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10982883000000</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1655560000000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1102653000000</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>0.1507</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1004</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4분기</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>103871512000000</v>
+      </c>
+      <c r="F41" t="n">
+        <v>40580970000000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>63290542000000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>44621568000000</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6809417000000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2241669000000</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>0.1526</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0502</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.0354</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1분기</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>104384608000000</v>
+      </c>
+      <c r="F42" t="n">
+        <v>43376074000000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>61008534000000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5088111000000</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-3402302000000</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-2585491000000</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>적자</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.6687</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.5081</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.0248</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.0424</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2분기</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>102819007000000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>45359957000000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>57459050000000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7305933000000</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-2882084000000</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-2987907000000</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>적자</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.3945</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.409</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.0291</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.052</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3분기</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>102049450000000</v>
+      </c>
+      <c r="F44" t="n">
+        <v>46817890000000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>55231560000000</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9066171000000</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-1791961000000</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-2184699000000</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>적자</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.1977</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.241</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.0214</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.0396</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4분기</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>100330165000000</v>
+      </c>
+      <c r="F45" t="n">
+        <v>46826413000000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>53503752000000</v>
+      </c>
+      <c r="H45" t="n">
+        <v>32765719000000</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-7730313000000</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-9137547000000</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>적자</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.2359</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.2789</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.0911</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-0.1708</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1분기</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>103197515000000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>47690113000000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>55507402000000</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12429598000000</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2886029000000</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1917039000000</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>0.2322</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.1542</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0345</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2분기</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>105624349000000</v>
+      </c>
+      <c r="F47" t="n">
+        <v>45794329000000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>59830020000000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>16423258000000</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5468536000000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4120003000000</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.2509</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.0689</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3분기</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>108367058000000</v>
+      </c>
+      <c r="F48" t="n">
+        <v>43065538000000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>65301520000000</v>
+      </c>
+      <c r="H48" t="n">
+        <v>17573069000000</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7029958000000</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5753373000000</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.3274</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.0881</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4분기</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>119855209000000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>45939505000000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>73915704000000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>66192960000000</v>
+      </c>
+      <c r="I49" t="n">
+        <v>23467319000000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>19796902000000</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.2991</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1652</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.2678</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1분기</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>119858637826315.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>53773133347368.42</v>
+      </c>
+      <c r="G50" t="n">
+        <v>66085504478947.36</v>
+      </c>
+      <c r="H50" t="n">
+        <v>28950011694736.84</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5723246147368.421</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3857073794736.843</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>0.1977</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.1332</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.0584</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2분기</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>122354732438345.9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>55557041494736.84</v>
+      </c>
+      <c r="G51" t="n">
+        <v>66797690943609.02</v>
+      </c>
+      <c r="H51" t="n">
+        <v>29907777046616.54</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5943446337593.985</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4002707803759.399</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>0.1987</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.1338</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.0327</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.0599</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3분기</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>124850827050375.9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>57340949642105.27</v>
+      </c>
+      <c r="G52" t="n">
+        <v>67509877408270.67</v>
+      </c>
+      <c r="H52" t="n">
+        <v>30865542398496.23</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6163646527819.549</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4148341812781.955</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>0.1997</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.1344</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.0614</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4분기</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>127346921662406</v>
+      </c>
+      <c r="F53" t="n">
+        <v>59124857789473.69</v>
+      </c>
+      <c r="G53" t="n">
+        <v>68222063872932.33</v>
+      </c>
+      <c r="H53" t="n">
+        <v>31823307750375.94</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6383846718045.113</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4293975821804.512</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>0.2006</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.1349</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0337</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.0629</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1분기</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>129843016274436.1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>60908765936842.11</v>
+      </c>
+      <c r="G54" t="n">
+        <v>68934250337593.98</v>
+      </c>
+      <c r="H54" t="n">
+        <v>32781073102255.63</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6604046908270.677</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4439609830827.068</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>0.2015</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.1354</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.0644</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2분기</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>132339110886466.2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>62692674084210.53</v>
+      </c>
+      <c r="G55" t="n">
+        <v>69646436802255.63</v>
+      </c>
+      <c r="H55" t="n">
+        <v>33738838454135.33</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6824247098496.241</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4585243839849.625</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>0.2023</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1359</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.0658</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>3분기</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>134835205498496.2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>64476582231578.95</v>
+      </c>
+      <c r="G56" t="n">
+        <v>70358623266917.28</v>
+      </c>
+      <c r="H56" t="n">
+        <v>34696603806015.03</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7044447288721.805</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4730877848872.182</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.1363</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0351</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.0672</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4분기</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>예측</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>137331300110526.3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>66260490378947.38</v>
+      </c>
+      <c r="G57" t="n">
+        <v>71070809731578.94</v>
+      </c>
+      <c r="H57" t="n">
+        <v>35654369157894.73</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7264647478947.369</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4876511857894.737</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>0.2038</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.1368</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.06859999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/삼성전자_2020-2024_재무분석_requests.xlsx
+++ b/삼성전자_2020-2024_재무분석_requests.xlsx
@@ -2128,22 +2128,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>67142787000000</v>
+        <v>45570152000000</v>
       </c>
       <c r="F30" t="n">
-        <v>18895063000000</v>
+        <v>28179481000000</v>
       </c>
       <c r="G30" t="n">
-        <v>48247724000000</v>
+        <v>17390671000000</v>
       </c>
       <c r="H30" t="n">
-        <v>7198892000000</v>
+        <v>14727803000000</v>
       </c>
       <c r="I30" t="n">
-        <v>800301000000</v>
+        <v>1090404000000</v>
       </c>
       <c r="J30" t="n">
-        <v>649050000000</v>
+        <v>1086731000000</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2151,16 +2151,16 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0.1112</v>
+        <v>0.074</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0902</v>
+        <v>0.0738</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0097</v>
+        <v>0.0238</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0135</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="31">
@@ -2185,22 +2185,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>69259297000000</v>
+        <v>44770155000000</v>
       </c>
       <c r="F31" t="n">
-        <v>19856421000000</v>
+        <v>27411364000000</v>
       </c>
       <c r="G31" t="n">
-        <v>49402876000000</v>
+        <v>17358791000000</v>
       </c>
       <c r="H31" t="n">
-        <v>8606534000000</v>
+        <v>12833827000000</v>
       </c>
       <c r="I31" t="n">
-        <v>1946715000000</v>
+        <v>495437000000</v>
       </c>
       <c r="J31" t="n">
-        <v>1264260000000</v>
+        <v>65550000000</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2208,16 +2208,16 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>0.2262</v>
+        <v>0.0386</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1469</v>
+        <v>0.0051</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0183</v>
+        <v>0.0015</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0256</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="32">
@@ -2242,22 +2242,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>69267173000000</v>
+        <v>49395983000000</v>
       </c>
       <c r="F32" t="n">
-        <v>18768114000000</v>
+        <v>31623989000000</v>
       </c>
       <c r="G32" t="n">
-        <v>50499059000000</v>
+        <v>17771994000000</v>
       </c>
       <c r="H32" t="n">
-        <v>8128767000000</v>
+        <v>16919559000000</v>
       </c>
       <c r="I32" t="n">
-        <v>1299696000000</v>
+        <v>958981000000</v>
       </c>
       <c r="J32" t="n">
-        <v>1077862000000</v>
+        <v>649225000000</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2265,16 +2265,16 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>0.1599</v>
+        <v>0.0567</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1326</v>
+        <v>0.0384</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0156</v>
+        <v>0.0131</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0213</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="33">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>71173853000000</v>
+        <v>48204227000000</v>
       </c>
       <c r="F33" t="n">
-        <v>19264756000000</v>
+        <v>30662102000000</v>
       </c>
       <c r="G33" t="n">
-        <v>51909097000000</v>
+        <v>17542125000000</v>
       </c>
       <c r="H33" t="n">
-        <v>31900418000000</v>
+        <v>63262046000000</v>
       </c>
       <c r="I33" t="n">
-        <v>5012624000000</v>
+        <v>3194987000000</v>
       </c>
       <c r="J33" t="n">
-        <v>4758914000000</v>
+        <v>2063790000000</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2322,16 +2322,16 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>0.1571</v>
+        <v>0.0505</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1492</v>
+        <v>0.0326</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0669</v>
+        <v>0.0428</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0917</v>
+        <v>0.1176</v>
       </c>
     </row>
     <row r="34">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>75118008000000</v>
+        <v>50458634000000</v>
       </c>
       <c r="F34" t="n">
-        <v>22739419000000</v>
+        <v>31607835000000</v>
       </c>
       <c r="G34" t="n">
-        <v>52378589000000</v>
+        <v>18850799000000</v>
       </c>
       <c r="H34" t="n">
-        <v>8494188000000</v>
+        <v>18809481000000</v>
       </c>
       <c r="I34" t="n">
-        <v>1324421000000</v>
+        <v>1516646000000</v>
       </c>
       <c r="J34" t="n">
-        <v>992640000000</v>
+        <v>1169145000000</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2379,16 +2379,16 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>0.1559</v>
+        <v>0.0806</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1169</v>
+        <v>0.0622</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0132</v>
+        <v>0.0232</v>
       </c>
       <c r="O34" t="n">
-        <v>0.019</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="35">
@@ -2413,39 +2413,39 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>77717897000000</v>
+        <v>50666883000000</v>
       </c>
       <c r="F35" t="n">
-        <v>22839883000000</v>
+        <v>31965236000000</v>
       </c>
       <c r="G35" t="n">
-        <v>54878014000000</v>
+        <v>18701647000000</v>
       </c>
       <c r="H35" t="n">
-        <v>10321671000000</v>
+        <v>17113898000000</v>
       </c>
       <c r="I35" t="n">
-        <v>2694574000000</v>
+        <v>878146000000</v>
       </c>
       <c r="J35" t="n">
-        <v>1988424000000</v>
+        <v>-291965000000</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>흑자</t>
+          <t>적자</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>0.2611</v>
+        <v>0.0513</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1926</v>
+        <v>-0.0171</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0256</v>
+        <v>-0.0058</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0362</v>
+        <v>-0.0156</v>
       </c>
     </row>
     <row r="36">
@@ -2470,22 +2470,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>83269048000000</v>
+        <v>54559798000000</v>
       </c>
       <c r="F36" t="n">
-        <v>24554602000000</v>
+        <v>34254674000000</v>
       </c>
       <c r="G36" t="n">
-        <v>58714446000000</v>
+        <v>20305124000000</v>
       </c>
       <c r="H36" t="n">
-        <v>11805324000000</v>
+        <v>18786651000000</v>
       </c>
       <c r="I36" t="n">
-        <v>4171821000000</v>
+        <v>540699000000</v>
       </c>
       <c r="J36" t="n">
-        <v>3315252000000</v>
+        <v>516477000000</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>0.3534</v>
+        <v>0.0288</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2808</v>
+        <v>0.0275</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0398</v>
+        <v>0.0095</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0565</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="37">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>96386474000000</v>
+        <v>53481478000000</v>
       </c>
       <c r="F37" t="n">
-        <v>34195416000000</v>
+        <v>33383445000000</v>
       </c>
       <c r="G37" t="n">
-        <v>62191058000000</v>
+        <v>20098033000000</v>
       </c>
       <c r="H37" t="n">
-        <v>42997792000000</v>
+        <v>74721629000000</v>
       </c>
       <c r="I37" t="n">
-        <v>12410340000000</v>
+        <v>3863774000000</v>
       </c>
       <c r="J37" t="n">
-        <v>9616188000000</v>
+        <v>1414972000000</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0.2886</v>
+        <v>0.0517</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2236</v>
+        <v>0.0189</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0998</v>
+        <v>0.0265</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1546</v>
+        <v>0.0704</v>
       </c>
     </row>
     <row r="38">
@@ -2584,22 +2584,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>99466056000000</v>
+        <v>55050923000000</v>
       </c>
       <c r="F38" t="n">
-        <v>36067417000000</v>
+        <v>33170602000000</v>
       </c>
       <c r="G38" t="n">
-        <v>63398639000000</v>
+        <v>21880321000000</v>
       </c>
       <c r="H38" t="n">
-        <v>12155653000000</v>
+        <v>21111389000000</v>
       </c>
       <c r="I38" t="n">
-        <v>2859615000000</v>
+        <v>1880482000000</v>
       </c>
       <c r="J38" t="n">
-        <v>1982928000000</v>
+        <v>1401001000000</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2607,16 +2607,16 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>0.2352</v>
+        <v>0.0891</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1631</v>
+        <v>0.0664</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0199</v>
+        <v>0.0254</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0313</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="39">
@@ -2641,22 +2641,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>104147622000000</v>
+        <v>55368797000000</v>
       </c>
       <c r="F39" t="n">
-        <v>37387462000000</v>
+        <v>32115772000000</v>
       </c>
       <c r="G39" t="n">
-        <v>66760160000000</v>
+        <v>23253025000000</v>
       </c>
       <c r="H39" t="n">
-        <v>13811001000000</v>
+        <v>19464043000000</v>
       </c>
       <c r="I39" t="n">
-        <v>4192617000000</v>
+        <v>792254000000</v>
       </c>
       <c r="J39" t="n">
-        <v>2876821000000</v>
+        <v>338032000000</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2664,16 +2664,16 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0.3036</v>
+        <v>0.0407</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2083</v>
+        <v>0.0174</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0276</v>
+        <v>0.0061</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0431</v>
+        <v>0.0145</v>
       </c>
     </row>
     <row r="40">
@@ -2698,22 +2698,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>109545800000000</v>
+        <v>61299428000000</v>
       </c>
       <c r="F40" t="n">
-        <v>40822614000000</v>
+        <v>36404183000000</v>
       </c>
       <c r="G40" t="n">
-        <v>68723186000000</v>
+        <v>24895245000000</v>
       </c>
       <c r="H40" t="n">
-        <v>10982883000000</v>
+        <v>21176765000000</v>
       </c>
       <c r="I40" t="n">
-        <v>1655560000000</v>
+        <v>746557000000</v>
       </c>
       <c r="J40" t="n">
-        <v>1102653000000</v>
+        <v>336431000000</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2721,16 +2721,16 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0.1507</v>
+        <v>0.0353</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1004</v>
+        <v>0.0159</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0101</v>
+        <v>0.0055</v>
       </c>
       <c r="O40" t="n">
-        <v>0.016</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="41">
@@ -2755,22 +2755,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>103871512000000</v>
+        <v>55156141000000</v>
       </c>
       <c r="F41" t="n">
-        <v>40580970000000</v>
+        <v>32664144000000</v>
       </c>
       <c r="G41" t="n">
-        <v>63290542000000</v>
+        <v>22491997000000</v>
       </c>
       <c r="H41" t="n">
-        <v>44621568000000</v>
+        <v>83467318000000</v>
       </c>
       <c r="I41" t="n">
-        <v>6809417000000</v>
+        <v>3550972000000</v>
       </c>
       <c r="J41" t="n">
-        <v>2241669000000</v>
+        <v>1863123000000</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2778,16 +2778,16 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0.1526</v>
+        <v>0.0425</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0502</v>
+        <v>0.0223</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0216</v>
+        <v>0.0338</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0354</v>
+        <v>0.0828</v>
       </c>
     </row>
     <row r="42">
@@ -2812,39 +2812,39 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>104384608000000</v>
+        <v>57490643000000</v>
       </c>
       <c r="F42" t="n">
-        <v>43376074000000</v>
+        <v>34130873000000</v>
       </c>
       <c r="G42" t="n">
-        <v>61008534000000</v>
+        <v>23359770000000</v>
       </c>
       <c r="H42" t="n">
-        <v>5088111000000</v>
+        <v>20415872000000</v>
       </c>
       <c r="I42" t="n">
-        <v>-3402302000000</v>
+        <v>1497388000000</v>
       </c>
       <c r="J42" t="n">
-        <v>-2585491000000</v>
+        <v>546529000000</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>적자</t>
+          <t>흑자</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>-0.6687</v>
+        <v>0.0733</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.5081</v>
+        <v>0.0268</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.0248</v>
+        <v>0.0095</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.0424</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="43">
@@ -2869,39 +2869,39 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>102819007000000</v>
+        <v>58160448000000</v>
       </c>
       <c r="F43" t="n">
-        <v>45359957000000</v>
+        <v>34608857000000</v>
       </c>
       <c r="G43" t="n">
-        <v>57459050000000</v>
+        <v>23551591000000</v>
       </c>
       <c r="H43" t="n">
-        <v>7305933000000</v>
+        <v>19998457000000</v>
       </c>
       <c r="I43" t="n">
-        <v>-2882084000000</v>
+        <v>741917000000</v>
       </c>
       <c r="J43" t="n">
-        <v>-2987907000000</v>
+        <v>195254000000</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>적자</t>
+          <t>흑자</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>-0.3945</v>
+        <v>0.0371</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.409</v>
+        <v>0.0098</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.0291</v>
+        <v>0.0034</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.052</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="44">
@@ -2926,39 +2926,39 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>102049450000000</v>
+        <v>61903092000000</v>
       </c>
       <c r="F44" t="n">
-        <v>46817890000000</v>
+        <v>37677993000000</v>
       </c>
       <c r="G44" t="n">
-        <v>55231560000000</v>
+        <v>24225099000000</v>
       </c>
       <c r="H44" t="n">
-        <v>9066171000000</v>
+        <v>20709340000000</v>
       </c>
       <c r="I44" t="n">
-        <v>-1791961000000</v>
+        <v>996660000000</v>
       </c>
       <c r="J44" t="n">
-        <v>-2184699000000</v>
+        <v>485262000000</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>적자</t>
+          <t>흑자</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>-0.1977</v>
+        <v>0.0481</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.241</v>
+        <v>0.0234</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.0214</v>
+        <v>0.0078</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.0396</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="45">
@@ -2983,39 +2983,39 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100330165000000</v>
+        <v>60240793000000</v>
       </c>
       <c r="F45" t="n">
-        <v>46826413000000</v>
+        <v>36742257000000</v>
       </c>
       <c r="G45" t="n">
-        <v>53503752000000</v>
+        <v>23498536000000</v>
       </c>
       <c r="H45" t="n">
-        <v>32765719000000</v>
+        <v>84227765000000</v>
       </c>
       <c r="I45" t="n">
-        <v>-7730313000000</v>
+        <v>3549074000000</v>
       </c>
       <c r="J45" t="n">
-        <v>-9137547000000</v>
+        <v>1150611000000</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>적자</t>
+          <t>흑자</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>-0.2359</v>
+        <v>0.0421</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.2789</v>
+        <v>0.0137</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.0911</v>
+        <v>0.0191</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.1708</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="46">
@@ -3040,22 +3040,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>103197515000000</v>
+        <v>61366108000000</v>
       </c>
       <c r="F46" t="n">
-        <v>47690113000000</v>
+        <v>36906703000000</v>
       </c>
       <c r="G46" t="n">
-        <v>55507402000000</v>
+        <v>24459405000000</v>
       </c>
       <c r="H46" t="n">
-        <v>12429598000000</v>
+        <v>21095949000000</v>
       </c>
       <c r="I46" t="n">
-        <v>2886029000000</v>
+        <v>1335411000000</v>
       </c>
       <c r="J46" t="n">
-        <v>1917039000000</v>
+        <v>585415000000</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3063,16 +3063,16 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>0.2322</v>
+        <v>0.0633</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1542</v>
+        <v>0.0278</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0186</v>
+        <v>0.0095</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0345</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="47">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>105624349000000</v>
+        <v>63125926000000</v>
       </c>
       <c r="F47" t="n">
-        <v>45794329000000</v>
+        <v>37880557000000</v>
       </c>
       <c r="G47" t="n">
-        <v>59830020000000</v>
+        <v>25245369000000</v>
       </c>
       <c r="H47" t="n">
-        <v>16423258000000</v>
+        <v>21694366000000</v>
       </c>
       <c r="I47" t="n">
-        <v>5468536000000</v>
+        <v>1196146000000</v>
       </c>
       <c r="J47" t="n">
-        <v>4120003000000</v>
+        <v>629470000000</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3120,16 +3120,16 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>0.333</v>
+        <v>0.0551</v>
       </c>
       <c r="M47" t="n">
-        <v>0.2509</v>
+        <v>0.029</v>
       </c>
       <c r="N47" t="n">
-        <v>0.039</v>
+        <v>0.01</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0689</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="48">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>108367058000000</v>
+        <v>64321918000000</v>
       </c>
       <c r="F48" t="n">
-        <v>43065538000000</v>
+        <v>39902594000000</v>
       </c>
       <c r="G48" t="n">
-        <v>65301520000000</v>
+        <v>24419324000000</v>
       </c>
       <c r="H48" t="n">
-        <v>17573069000000</v>
+        <v>22176370000000</v>
       </c>
       <c r="I48" t="n">
-        <v>7029958000000</v>
+        <v>751880000000</v>
       </c>
       <c r="J48" t="n">
-        <v>5753373000000</v>
+        <v>90234000000</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3177,16 +3177,16 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0.4</v>
+        <v>0.0339</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3274</v>
+        <v>0.0041</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0531</v>
+        <v>0.0014</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0881</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="49">
@@ -3211,22 +3211,22 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>119855209000000</v>
+        <v>65629589000000</v>
       </c>
       <c r="F49" t="n">
-        <v>45939505000000</v>
+        <v>40417925000000</v>
       </c>
       <c r="G49" t="n">
-        <v>73915704000000</v>
+        <v>25211664000000</v>
       </c>
       <c r="H49" t="n">
-        <v>66192960000000</v>
+        <v>87728182000000</v>
       </c>
       <c r="I49" t="n">
-        <v>23467319000000</v>
+        <v>3419675000000</v>
       </c>
       <c r="J49" t="n">
-        <v>19796902000000</v>
+        <v>591365000000</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3234,16 +3234,16 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0.3545</v>
+        <v>0.039</v>
       </c>
       <c r="M49" t="n">
-        <v>0.2991</v>
+        <v>0.0067</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1652</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="O49" t="n">
-        <v>0.2678</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="50">
@@ -3268,22 +3268,22 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>119858637826315.8</v>
+        <v>66475180763157.86</v>
       </c>
       <c r="F50" t="n">
-        <v>53773133347368.42</v>
+        <v>39902281342105.27</v>
       </c>
       <c r="G50" t="n">
-        <v>66085504478947.36</v>
+        <v>26572899421052.63</v>
       </c>
       <c r="H50" t="n">
-        <v>28950011694736.84</v>
+        <v>47814044005263.17</v>
       </c>
       <c r="I50" t="n">
-        <v>5723246147368.421</v>
+        <v>2012751105263.158</v>
       </c>
       <c r="J50" t="n">
-        <v>3857073794736.843</v>
+        <v>531787589473.6838</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3291,16 +3291,16 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>0.1977</v>
+        <v>0.0421</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1332</v>
+        <v>0.0111</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0322</v>
+        <v>0.008</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0584</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="51">
@@ -3325,22 +3325,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>122354732438345.9</v>
+        <v>67490811712030.05</v>
       </c>
       <c r="F51" t="n">
-        <v>55557041494736.84</v>
+        <v>40456257727067.68</v>
       </c>
       <c r="G51" t="n">
-        <v>66797690943609.02</v>
+        <v>27034553984962.4</v>
       </c>
       <c r="H51" t="n">
-        <v>29907777046616.54</v>
+        <v>49127568624812.05</v>
       </c>
       <c r="I51" t="n">
-        <v>5943446337593.985</v>
+        <v>2047310781954.887</v>
       </c>
       <c r="J51" t="n">
-        <v>4002707803759.399</v>
+        <v>511545207518.7966</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3348,16 +3348,16 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>0.1987</v>
+        <v>0.0417</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1338</v>
+        <v>0.0104</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0327</v>
+        <v>0.0076</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0599</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="52">
@@ -3382,22 +3382,22 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>124850827050375.9</v>
+        <v>68506442660902.22</v>
       </c>
       <c r="F52" t="n">
-        <v>57340949642105.27</v>
+        <v>41010234112030.09</v>
       </c>
       <c r="G52" t="n">
-        <v>67509877408270.67</v>
+        <v>27496208548872.18</v>
       </c>
       <c r="H52" t="n">
-        <v>30865542398496.23</v>
+        <v>50441093244360.91</v>
       </c>
       <c r="I52" t="n">
-        <v>6163646527819.549</v>
+        <v>2081870458646.616</v>
       </c>
       <c r="J52" t="n">
-        <v>4148341812781.955</v>
+        <v>491302825563.9093</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3405,16 +3405,16 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>0.1997</v>
+        <v>0.0413</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1344</v>
+        <v>0.0097</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0332</v>
+        <v>0.0072</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0614</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="53">
@@ -3439,22 +3439,22 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>127346921662406</v>
+        <v>69522073609774.4</v>
       </c>
       <c r="F53" t="n">
-        <v>59124857789473.69</v>
+        <v>41564210496992.49</v>
       </c>
       <c r="G53" t="n">
-        <v>68222063872932.33</v>
+        <v>27957863112781.95</v>
       </c>
       <c r="H53" t="n">
-        <v>31823307750375.94</v>
+        <v>51754617863909.78</v>
       </c>
       <c r="I53" t="n">
-        <v>6383846718045.113</v>
+        <v>2116430135338.346</v>
       </c>
       <c r="J53" t="n">
-        <v>4293975821804.512</v>
+        <v>471060443609.0221</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3462,16 +3462,16 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>0.2006</v>
+        <v>0.0409</v>
       </c>
       <c r="M53" t="n">
-        <v>0.1349</v>
+        <v>0.0091</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0337</v>
+        <v>0.0068</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0629</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="54">
@@ -3496,22 +3496,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>129843016274436.1</v>
+        <v>70537704558646.58</v>
       </c>
       <c r="F54" t="n">
-        <v>60908765936842.11</v>
+        <v>42118186881954.89</v>
       </c>
       <c r="G54" t="n">
-        <v>68934250337593.98</v>
+        <v>28419517676691.73</v>
       </c>
       <c r="H54" t="n">
-        <v>32781073102255.63</v>
+        <v>53068142483458.66</v>
       </c>
       <c r="I54" t="n">
-        <v>6604046908270.677</v>
+        <v>2150989812030.075</v>
       </c>
       <c r="J54" t="n">
-        <v>4439609830827.068</v>
+        <v>450818061654.1348</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3519,16 +3519,16 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>0.2015</v>
+        <v>0.0405</v>
       </c>
       <c r="M54" t="n">
-        <v>0.1354</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0342</v>
+        <v>0.0064</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0644</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="55">
@@ -3553,22 +3553,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>132339110886466.2</v>
+        <v>71553335507518.75</v>
       </c>
       <c r="F55" t="n">
-        <v>62692674084210.53</v>
+        <v>42672163266917.3</v>
       </c>
       <c r="G55" t="n">
-        <v>69646436802255.63</v>
+        <v>28881172240601.5</v>
       </c>
       <c r="H55" t="n">
-        <v>33738838454135.33</v>
+        <v>54381667103007.53</v>
       </c>
       <c r="I55" t="n">
-        <v>6824247098496.241</v>
+        <v>2185549488721.804</v>
       </c>
       <c r="J55" t="n">
-        <v>4585243839849.625</v>
+        <v>430575679699.2476</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3576,16 +3576,16 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>0.2023</v>
+        <v>0.0402</v>
       </c>
       <c r="M55" t="n">
-        <v>0.1359</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0346</v>
+        <v>0.006</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0658</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="56">
@@ -3610,22 +3610,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>134835205498496.2</v>
+        <v>72568966456390.94</v>
       </c>
       <c r="F56" t="n">
-        <v>64476582231578.95</v>
+        <v>43226139651879.7</v>
       </c>
       <c r="G56" t="n">
-        <v>70358623266917.28</v>
+        <v>29342826804511.27</v>
       </c>
       <c r="H56" t="n">
-        <v>34696603806015.03</v>
+        <v>55695191722556.41</v>
       </c>
       <c r="I56" t="n">
-        <v>7044447288721.805</v>
+        <v>2220109165413.534</v>
       </c>
       <c r="J56" t="n">
-        <v>4730877848872.182</v>
+        <v>410333297744.3604</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3633,16 +3633,16 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>0.203</v>
+        <v>0.0399</v>
       </c>
       <c r="M56" t="n">
-        <v>0.1363</v>
+        <v>0.0074</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0351</v>
+        <v>0.0057</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0672</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="57">
@@ -3667,22 +3667,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>137331300110526.3</v>
+        <v>73584597405263.11</v>
       </c>
       <c r="F57" t="n">
-        <v>66260490378947.38</v>
+        <v>43780116036842.11</v>
       </c>
       <c r="G57" t="n">
-        <v>71070809731578.94</v>
+        <v>29804481368421.05</v>
       </c>
       <c r="H57" t="n">
-        <v>35654369157894.73</v>
+        <v>57008716342105.28</v>
       </c>
       <c r="I57" t="n">
-        <v>7264647478947.369</v>
+        <v>2254668842105.263</v>
       </c>
       <c r="J57" t="n">
-        <v>4876511857894.737</v>
+        <v>390090915789.4731</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3690,16 +3690,16 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>0.2038</v>
+        <v>0.0395</v>
       </c>
       <c r="M57" t="n">
-        <v>0.1368</v>
+        <v>0.0068</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0355</v>
+        <v>0.0053</v>
       </c>
       <c r="O57" t="n">
-        <v>0.06859999999999999</v>
+        <v>0.0131</v>
       </c>
     </row>
   </sheetData>

--- a/삼성전자_2020-2024_재무분석_requests.xlsx
+++ b/삼성전자_2020-2024_재무분석_requests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,32 +481,57 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>영업비용</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>당기순이익</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>수익성 상태</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>매출액_성장률</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>영업이익_성장률</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>영업이익률</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>순이익률</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>영업비용률</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ROA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ROE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>영업이익_ROE</t>
         </is>
       </c>
     </row>
@@ -547,24 +572,35 @@
         <v>6447345000000</v>
       </c>
       <c r="J2" t="n">
+        <v>48877833000000</v>
+      </c>
+      <c r="K2" t="n">
         <v>4884926000000</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
         <v>0.1165</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>0.0883</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
+        <v>0.8835</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.0137</v>
       </c>
-      <c r="O2" t="n">
+      <c r="S2" t="n">
         <v>0.0183</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0242</v>
       </c>
     </row>
     <row r="3">
@@ -604,24 +640,35 @@
         <v>8146292000000</v>
       </c>
       <c r="J3" t="n">
+        <v>44819850000000</v>
+      </c>
+      <c r="K3" t="n">
         <v>5555083000000</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
         <v>0.1538</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>0.1049</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
+        <v>0.8462</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.0155</v>
       </c>
-      <c r="O3" t="n">
+      <c r="S3" t="n">
         <v>0.0206</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0302</v>
       </c>
     </row>
     <row r="4">
@@ -661,24 +708,35 @@
         <v>12353238000000</v>
       </c>
       <c r="J4" t="n">
+        <v>54610922000000</v>
+      </c>
+      <c r="K4" t="n">
         <v>9360693000000</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
         <v>0.1845</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>0.1398</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
+        <v>0.8155</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.0249</v>
       </c>
-      <c r="O4" t="n">
+      <c r="S4" t="n">
         <v>0.0339</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0447</v>
       </c>
     </row>
     <row r="5">
@@ -718,24 +776,35 @@
         <v>35993876000000</v>
       </c>
       <c r="J5" t="n">
+        <v>200813112000000</v>
+      </c>
+      <c r="K5" t="n">
         <v>26407832000000</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
         <v>0.152</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>0.1115</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.0698</v>
       </c>
-      <c r="O5" t="n">
+      <c r="S5" t="n">
         <v>0.09569999999999999</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1304</v>
       </c>
     </row>
     <row r="6">
@@ -775,24 +844,39 @@
         <v>9382868000000</v>
       </c>
       <c r="J6" t="n">
+        <v>56005635000000</v>
+      </c>
+      <c r="K6" t="n">
         <v>7141685000000</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1819</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4553</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.1435</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>0.1092</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
+        <v>0.8565</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.0182</v>
       </c>
-      <c r="O6" t="n">
+      <c r="S6" t="n">
         <v>0.026</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0342</v>
       </c>
     </row>
     <row r="7">
@@ -832,24 +916,39 @@
         <v>12566745000000</v>
       </c>
       <c r="J7" t="n">
+        <v>51104840000000</v>
+      </c>
+      <c r="K7" t="n">
         <v>9634486000000</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2021</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5426</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.1974</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>0.1513</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
+        <v>0.8026</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.025</v>
       </c>
-      <c r="O7" t="n">
+      <c r="S7" t="n">
         <v>0.0341</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0445</v>
       </c>
     </row>
     <row r="8">
@@ -889,24 +988,39 @@
         <v>15817531000000</v>
       </c>
       <c r="J8" t="n">
+        <v>58161656000000</v>
+      </c>
+      <c r="K8" t="n">
         <v>12293331000000</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1048</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2804</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.2138</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>0.1662</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
+        <v>0.7862</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.03</v>
       </c>
-      <c r="O8" t="n">
+      <c r="S8" t="n">
         <v>0.0414</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0533</v>
       </c>
     </row>
     <row r="9">
@@ -946,24 +1060,39 @@
         <v>51633856000000</v>
       </c>
       <c r="J9" t="n">
+        <v>227970943000000</v>
+      </c>
+      <c r="K9" t="n">
         <v>39907450000000</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1807</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.4345</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.1847</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>0.1427</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
+        <v>0.8153</v>
+      </c>
+      <c r="R9" t="n">
         <v>0.0935</v>
       </c>
-      <c r="O9" t="n">
+      <c r="S9" t="n">
         <v>0.1309</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.1693</v>
       </c>
     </row>
     <row r="10">
@@ -1003,24 +1132,39 @@
         <v>14121409000000</v>
       </c>
       <c r="J10" t="n">
+        <v>63660089000000</v>
+      </c>
+      <c r="K10" t="n">
         <v>11324628000000</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1895</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="O10" t="n">
         <v>0.1816</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>0.1456</v>
       </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
+        <v>0.8184</v>
+      </c>
+      <c r="R10" t="n">
         <v>0.0258</v>
       </c>
-      <c r="O10" t="n">
+      <c r="S10" t="n">
         <v>0.0359</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0448</v>
       </c>
     </row>
     <row r="11">
@@ -1060,24 +1204,39 @@
         <v>14097045000000</v>
       </c>
       <c r="J11" t="n">
+        <v>63106562000000</v>
+      </c>
+      <c r="K11" t="n">
         <v>11098805000000</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1218</v>
+      </c>
+      <c r="O11" t="n">
         <v>0.1826</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>0.1438</v>
       </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
+        <v>0.8174</v>
+      </c>
+      <c r="R11" t="n">
         <v>0.0248</v>
       </c>
-      <c r="O11" t="n">
+      <c r="S11" t="n">
         <v>0.0338</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.043</v>
       </c>
     </row>
     <row r="12">
@@ -1117,24 +1276,39 @@
         <v>10852045000000</v>
       </c>
       <c r="J12" t="n">
+        <v>65929635000000</v>
+      </c>
+      <c r="K12" t="n">
         <v>9389198000000</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0379</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.3139</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.1413</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>0.1223</v>
       </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
+        <v>0.8587</v>
+      </c>
+      <c r="R12" t="n">
         <v>0.02</v>
       </c>
-      <c r="O12" t="n">
+      <c r="S12" t="n">
         <v>0.0272</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.0315</v>
       </c>
     </row>
     <row r="13">
@@ -1174,24 +1348,39 @@
         <v>43376630000000</v>
       </c>
       <c r="J13" t="n">
+        <v>258854730000000</v>
+      </c>
+      <c r="K13" t="n">
         <v>55654077000000</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0809</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.1599</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.1435</v>
       </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
         <v>0.1841</v>
       </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
+        <v>0.8565</v>
+      </c>
+      <c r="R13" t="n">
         <v>0.1241</v>
       </c>
-      <c r="O13" t="n">
+      <c r="S13" t="n">
         <v>0.1569</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.1223</v>
       </c>
     </row>
     <row r="14">
@@ -1231,24 +1420,39 @@
         <v>640178000000</v>
       </c>
       <c r="J14" t="n">
+        <v>63105193000000</v>
+      </c>
+      <c r="K14" t="n">
         <v>1574600000000</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.1805</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.9547</v>
+      </c>
+      <c r="O14" t="n">
         <v>0.01</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>0.0247</v>
       </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R14" t="n">
         <v>0.0035</v>
       </c>
-      <c r="O14" t="n">
+      <c r="S14" t="n">
         <v>0.0044</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0018</v>
       </c>
     </row>
     <row r="15">
@@ -1288,24 +1492,39 @@
         <v>668547000000</v>
       </c>
       <c r="J15" t="n">
+        <v>59336986000000</v>
+      </c>
+      <c r="K15" t="n">
         <v>1723571000000</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.2228</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.9526</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.0111</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
         <v>0.0287</v>
       </c>
-      <c r="N15" t="n">
+      <c r="Q15" t="n">
+        <v>0.9889</v>
+      </c>
+      <c r="R15" t="n">
         <v>0.0038</v>
       </c>
-      <c r="O15" t="n">
+      <c r="S15" t="n">
         <v>0.0048</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0019</v>
       </c>
     </row>
     <row r="16">
@@ -1345,24 +1564,39 @@
         <v>2433534000000</v>
       </c>
       <c r="J16" t="n">
+        <v>64971118000000</v>
+      </c>
+      <c r="K16" t="n">
         <v>5844171000000</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.1221</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.7758</v>
+      </c>
+      <c r="O16" t="n">
         <v>0.0361</v>
       </c>
-      <c r="M16" t="n">
+      <c r="P16" t="n">
         <v>0.0867</v>
       </c>
-      <c r="N16" t="n">
+      <c r="Q16" t="n">
+        <v>0.9639</v>
+      </c>
+      <c r="R16" t="n">
         <v>0.0129</v>
       </c>
-      <c r="O16" t="n">
+      <c r="S16" t="n">
         <v>0.0161</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0067</v>
       </c>
     </row>
     <row r="17">
@@ -1402,24 +1636,39 @@
         <v>6566976000000</v>
       </c>
       <c r="J17" t="n">
+        <v>252368518000000</v>
+      </c>
+      <c r="K17" t="n">
         <v>15487100000000</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.1433</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.8486</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.0254</v>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
         <v>0.0598</v>
       </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="R17" t="n">
         <v>0.034</v>
       </c>
-      <c r="O17" t="n">
+      <c r="S17" t="n">
         <v>0.0426</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0181</v>
       </c>
     </row>
     <row r="18">
@@ -1459,24 +1708,39 @@
         <v>6606009000000</v>
       </c>
       <c r="J18" t="n">
+        <v>65309592000000</v>
+      </c>
+      <c r="K18" t="n">
         <v>6754708000000</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1282</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9.319000000000001</v>
+      </c>
+      <c r="O18" t="n">
         <v>0.0919</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>0.0939</v>
       </c>
-      <c r="N18" t="n">
+      <c r="Q18" t="n">
+        <v>0.9081</v>
+      </c>
+      <c r="R18" t="n">
         <v>0.0143</v>
       </c>
-      <c r="O18" t="n">
+      <c r="S18" t="n">
         <v>0.0182</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0178</v>
       </c>
     </row>
     <row r="19">
@@ -1516,24 +1780,39 @@
         <v>10443878000000</v>
       </c>
       <c r="J19" t="n">
+        <v>63624424000000</v>
+      </c>
+      <c r="K19" t="n">
         <v>9841345000000</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0.2344</v>
+      </c>
+      <c r="N19" t="n">
+        <v>14.6218</v>
+      </c>
+      <c r="O19" t="n">
         <v>0.141</v>
       </c>
-      <c r="M19" t="n">
+      <c r="P19" t="n">
         <v>0.1329</v>
       </c>
-      <c r="N19" t="n">
+      <c r="Q19" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="R19" t="n">
         <v>0.0203</v>
       </c>
-      <c r="O19" t="n">
+      <c r="S19" t="n">
         <v>0.0257</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0272</v>
       </c>
     </row>
     <row r="20">
@@ -1573,24 +1852,39 @@
         <v>9183371000000</v>
       </c>
       <c r="J20" t="n">
+        <v>69915360000000</v>
+      </c>
+      <c r="K20" t="n">
         <v>10100904000000</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1735</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.7737</v>
+      </c>
+      <c r="O20" t="n">
         <v>0.1161</v>
       </c>
-      <c r="M20" t="n">
+      <c r="P20" t="n">
         <v>0.1277</v>
       </c>
-      <c r="N20" t="n">
+      <c r="Q20" t="n">
+        <v>0.8839</v>
+      </c>
+      <c r="R20" t="n">
         <v>0.0206</v>
       </c>
-      <c r="O20" t="n">
+      <c r="S20" t="n">
         <v>0.0261</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0238</v>
       </c>
     </row>
     <row r="21">
@@ -1630,24 +1924,39 @@
         <v>32725961000000</v>
       </c>
       <c r="J21" t="n">
+        <v>268144942000000</v>
+      </c>
+      <c r="K21" t="n">
         <v>34451351000000</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.9834</v>
+      </c>
+      <c r="O21" t="n">
         <v>0.1088</v>
       </c>
-      <c r="M21" t="n">
+      <c r="P21" t="n">
         <v>0.1145</v>
       </c>
-      <c r="N21" t="n">
+      <c r="Q21" t="n">
+        <v>0.8912</v>
+      </c>
+      <c r="R21" t="n">
         <v>0.067</v>
       </c>
-      <c r="O21" t="n">
+      <c r="S21" t="n">
         <v>0.0857</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0814</v>
       </c>
     </row>
     <row r="22">
@@ -1687,24 +1996,35 @@
         <v>12894264463157.89</v>
       </c>
       <c r="J22" t="n">
+        <v>144693407121052.6</v>
+      </c>
+      <c r="K22" t="n">
         <v>16901021673684.21</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
         <v>0.0818</v>
       </c>
-      <c r="M22" t="n">
+      <c r="P22" t="n">
         <v>0.1072</v>
       </c>
-      <c r="N22" t="n">
+      <c r="Q22" t="n">
+        <v>0.9182</v>
+      </c>
+      <c r="R22" t="n">
         <v>0.0331</v>
       </c>
-      <c r="O22" t="n">
+      <c r="S22" t="n">
         <v>0.0414</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0316</v>
       </c>
     </row>
     <row r="23">
@@ -1744,24 +2064,35 @@
         <v>12674397583458.64</v>
       </c>
       <c r="J23" t="n">
+        <v>148470436656391</v>
+      </c>
+      <c r="K23" t="n">
         <v>17137166861654.14</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
         <v>0.07870000000000001</v>
       </c>
-      <c r="M23" t="n">
+      <c r="P23" t="n">
         <v>0.1063</v>
       </c>
-      <c r="N23" t="n">
+      <c r="Q23" t="n">
+        <v>0.9213</v>
+      </c>
+      <c r="R23" t="n">
         <v>0.033</v>
       </c>
-      <c r="O23" t="n">
+      <c r="S23" t="n">
         <v>0.0413</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.0305</v>
       </c>
     </row>
     <row r="24">
@@ -1801,24 +2132,35 @@
         <v>12454530703759.39</v>
       </c>
       <c r="J24" t="n">
+        <v>152247466191729.3</v>
+      </c>
+      <c r="K24" t="n">
         <v>17373312049624.06</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
         <v>0.0756</v>
       </c>
-      <c r="M24" t="n">
+      <c r="P24" t="n">
         <v>0.1055</v>
       </c>
-      <c r="N24" t="n">
+      <c r="Q24" t="n">
+        <v>0.9244</v>
+      </c>
+      <c r="R24" t="n">
         <v>0.033</v>
       </c>
-      <c r="O24" t="n">
+      <c r="S24" t="n">
         <v>0.0411</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0295</v>
       </c>
     </row>
     <row r="25">
@@ -1858,24 +2200,35 @@
         <v>12234663824060.15</v>
       </c>
       <c r="J25" t="n">
+        <v>156024495727067.7</v>
+      </c>
+      <c r="K25" t="n">
         <v>17609457237593.98</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
         <v>0.0727</v>
       </c>
-      <c r="M25" t="n">
+      <c r="P25" t="n">
         <v>0.1047</v>
       </c>
-      <c r="N25" t="n">
+      <c r="Q25" t="n">
+        <v>0.9273</v>
+      </c>
+      <c r="R25" t="n">
         <v>0.033</v>
       </c>
-      <c r="O25" t="n">
+      <c r="S25" t="n">
         <v>0.0409</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.0284</v>
       </c>
     </row>
     <row r="26">
@@ -1915,24 +2268,35 @@
         <v>12014796944360.9</v>
       </c>
       <c r="J26" t="n">
+        <v>159801525262406</v>
+      </c>
+      <c r="K26" t="n">
         <v>17845602425563.91</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
         <v>0.0699</v>
       </c>
-      <c r="M26" t="n">
+      <c r="P26" t="n">
         <v>0.1039</v>
       </c>
-      <c r="N26" t="n">
+      <c r="Q26" t="n">
+        <v>0.9301</v>
+      </c>
+      <c r="R26" t="n">
         <v>0.033</v>
       </c>
-      <c r="O26" t="n">
+      <c r="S26" t="n">
         <v>0.0408</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0274</v>
       </c>
     </row>
     <row r="27">
@@ -1972,24 +2336,35 @@
         <v>11794930064661.65</v>
       </c>
       <c r="J27" t="n">
+        <v>163578554797744.3</v>
+      </c>
+      <c r="K27" t="n">
         <v>18081747613533.84</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="n">
         <v>0.0673</v>
       </c>
-      <c r="M27" t="n">
+      <c r="P27" t="n">
         <v>0.1031</v>
       </c>
-      <c r="N27" t="n">
+      <c r="Q27" t="n">
+        <v>0.9327</v>
+      </c>
+      <c r="R27" t="n">
         <v>0.033</v>
       </c>
-      <c r="O27" t="n">
+      <c r="S27" t="n">
         <v>0.0406</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0265</v>
       </c>
     </row>
     <row r="28">
@@ -2029,24 +2404,35 @@
         <v>11575063184962.4</v>
       </c>
       <c r="J28" t="n">
+        <v>167355584333082.7</v>
+      </c>
+      <c r="K28" t="n">
         <v>18317892801503.76</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
         <v>0.06469999999999999</v>
       </c>
-      <c r="M28" t="n">
+      <c r="P28" t="n">
         <v>0.1024</v>
       </c>
-      <c r="N28" t="n">
+      <c r="Q28" t="n">
+        <v>0.9353</v>
+      </c>
+      <c r="R28" t="n">
         <v>0.033</v>
       </c>
-      <c r="O28" t="n">
+      <c r="S28" t="n">
         <v>0.0405</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0256</v>
       </c>
     </row>
     <row r="29">
@@ -2086,24 +2472,35 @@
         <v>11355196305263.15</v>
       </c>
       <c r="J29" t="n">
+        <v>171132613868421</v>
+      </c>
+      <c r="K29" t="n">
         <v>18554037989473.69</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
         <v>0.0622</v>
       </c>
-      <c r="M29" t="n">
+      <c r="P29" t="n">
         <v>0.1017</v>
       </c>
-      <c r="N29" t="n">
+      <c r="Q29" t="n">
+        <v>0.9378</v>
+      </c>
+      <c r="R29" t="n">
         <v>0.0329</v>
       </c>
-      <c r="O29" t="n">
+      <c r="S29" t="n">
         <v>0.0403</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0247</v>
       </c>
     </row>
     <row r="30">
@@ -2143,24 +2540,35 @@
         <v>1090404000000</v>
       </c>
       <c r="J30" t="n">
+        <v>13637399000000</v>
+      </c>
+      <c r="K30" t="n">
         <v>1086731000000</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
         <v>0.074</v>
       </c>
-      <c r="M30" t="n">
+      <c r="P30" t="n">
         <v>0.0738</v>
       </c>
-      <c r="N30" t="n">
+      <c r="Q30" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="R30" t="n">
         <v>0.0238</v>
       </c>
-      <c r="O30" t="n">
+      <c r="S30" t="n">
         <v>0.0625</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.06270000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -2200,24 +2608,35 @@
         <v>495437000000</v>
       </c>
       <c r="J31" t="n">
+        <v>12338390000000</v>
+      </c>
+      <c r="K31" t="n">
         <v>65550000000</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="n">
         <v>0.0386</v>
       </c>
-      <c r="M31" t="n">
+      <c r="P31" t="n">
         <v>0.0051</v>
       </c>
-      <c r="N31" t="n">
+      <c r="Q31" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="R31" t="n">
         <v>0.0015</v>
       </c>
-      <c r="O31" t="n">
+      <c r="S31" t="n">
         <v>0.0038</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0285</v>
       </c>
     </row>
     <row r="32">
@@ -2257,24 +2676,35 @@
         <v>958981000000</v>
       </c>
       <c r="J32" t="n">
+        <v>15960578000000</v>
+      </c>
+      <c r="K32" t="n">
         <v>649225000000</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="n">
         <v>0.0567</v>
       </c>
-      <c r="M32" t="n">
+      <c r="P32" t="n">
         <v>0.0384</v>
       </c>
-      <c r="N32" t="n">
+      <c r="Q32" t="n">
+        <v>0.9433</v>
+      </c>
+      <c r="R32" t="n">
         <v>0.0131</v>
       </c>
-      <c r="O32" t="n">
+      <c r="S32" t="n">
         <v>0.0365</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.054</v>
       </c>
     </row>
     <row r="33">
@@ -2314,24 +2744,35 @@
         <v>3194987000000</v>
       </c>
       <c r="J33" t="n">
+        <v>60067059000000</v>
+      </c>
+      <c r="K33" t="n">
         <v>2063790000000</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="n">
         <v>0.0505</v>
       </c>
-      <c r="M33" t="n">
+      <c r="P33" t="n">
         <v>0.0326</v>
       </c>
-      <c r="N33" t="n">
+      <c r="Q33" t="n">
+        <v>0.9495</v>
+      </c>
+      <c r="R33" t="n">
         <v>0.0428</v>
       </c>
-      <c r="O33" t="n">
+      <c r="S33" t="n">
         <v>0.1176</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.1821</v>
       </c>
     </row>
     <row r="34">
@@ -2371,24 +2812,39 @@
         <v>1516646000000</v>
       </c>
       <c r="J34" t="n">
+        <v>17292835000000</v>
+      </c>
+      <c r="K34" t="n">
         <v>1169145000000</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>0.2771</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.3909</v>
+      </c>
+      <c r="O34" t="n">
         <v>0.0806</v>
       </c>
-      <c r="M34" t="n">
+      <c r="P34" t="n">
         <v>0.0622</v>
       </c>
-      <c r="N34" t="n">
+      <c r="Q34" t="n">
+        <v>0.9194</v>
+      </c>
+      <c r="R34" t="n">
         <v>0.0232</v>
       </c>
-      <c r="O34" t="n">
+      <c r="S34" t="n">
         <v>0.062</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0805</v>
       </c>
     </row>
     <row r="35">
@@ -2428,24 +2884,39 @@
         <v>878146000000</v>
       </c>
       <c r="J35" t="n">
+        <v>16235752000000</v>
+      </c>
+      <c r="K35" t="n">
         <v>-291965000000</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>적자</t>
         </is>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
+        <v>0.3335</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7725</v>
+      </c>
+      <c r="O35" t="n">
         <v>0.0513</v>
       </c>
-      <c r="M35" t="n">
+      <c r="P35" t="n">
         <v>-0.0171</v>
       </c>
-      <c r="N35" t="n">
+      <c r="Q35" t="n">
+        <v>0.9487</v>
+      </c>
+      <c r="R35" t="n">
         <v>-0.0058</v>
       </c>
-      <c r="O35" t="n">
+      <c r="S35" t="n">
         <v>-0.0156</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.047</v>
       </c>
     </row>
     <row r="36">
@@ -2485,24 +2956,39 @@
         <v>540699000000</v>
       </c>
       <c r="J36" t="n">
+        <v>18245952000000</v>
+      </c>
+      <c r="K36" t="n">
         <v>516477000000</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1104</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.4362</v>
+      </c>
+      <c r="O36" t="n">
         <v>0.0288</v>
       </c>
-      <c r="M36" t="n">
+      <c r="P36" t="n">
         <v>0.0275</v>
       </c>
-      <c r="N36" t="n">
+      <c r="Q36" t="n">
+        <v>0.9712</v>
+      </c>
+      <c r="R36" t="n">
         <v>0.0095</v>
       </c>
-      <c r="O36" t="n">
+      <c r="S36" t="n">
         <v>0.0254</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0266</v>
       </c>
     </row>
     <row r="37">
@@ -2542,24 +3028,39 @@
         <v>3863774000000</v>
       </c>
       <c r="J37" t="n">
+        <v>70857855000000</v>
+      </c>
+      <c r="K37" t="n">
         <v>1414972000000</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>0.1811</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.2093</v>
+      </c>
+      <c r="O37" t="n">
         <v>0.0517</v>
       </c>
-      <c r="M37" t="n">
+      <c r="P37" t="n">
         <v>0.0189</v>
       </c>
-      <c r="N37" t="n">
+      <c r="Q37" t="n">
+        <v>0.9483</v>
+      </c>
+      <c r="R37" t="n">
         <v>0.0265</v>
       </c>
-      <c r="O37" t="n">
+      <c r="S37" t="n">
         <v>0.0704</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.1922</v>
       </c>
     </row>
     <row r="38">
@@ -2599,24 +3100,39 @@
         <v>1880482000000</v>
       </c>
       <c r="J38" t="n">
+        <v>19230907000000</v>
+      </c>
+      <c r="K38" t="n">
         <v>1401001000000</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>0.1224</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2399</v>
+      </c>
+      <c r="O38" t="n">
         <v>0.0891</v>
       </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>0.0664</v>
       </c>
-      <c r="N38" t="n">
+      <c r="Q38" t="n">
+        <v>0.9109</v>
+      </c>
+      <c r="R38" t="n">
         <v>0.0254</v>
       </c>
-      <c r="O38" t="n">
+      <c r="S38" t="n">
         <v>0.064</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0859</v>
       </c>
     </row>
     <row r="39">
@@ -2656,24 +3172,39 @@
         <v>792254000000</v>
       </c>
       <c r="J39" t="n">
+        <v>18671789000000</v>
+      </c>
+      <c r="K39" t="n">
         <v>338032000000</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1373</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.0978</v>
+      </c>
+      <c r="O39" t="n">
         <v>0.0407</v>
       </c>
-      <c r="M39" t="n">
+      <c r="P39" t="n">
         <v>0.0174</v>
       </c>
-      <c r="N39" t="n">
+      <c r="Q39" t="n">
+        <v>0.9593</v>
+      </c>
+      <c r="R39" t="n">
         <v>0.0061</v>
       </c>
-      <c r="O39" t="n">
+      <c r="S39" t="n">
         <v>0.0145</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0341</v>
       </c>
     </row>
     <row r="40">
@@ -2713,24 +3244,39 @@
         <v>746557000000</v>
       </c>
       <c r="J40" t="n">
+        <v>20430208000000</v>
+      </c>
+      <c r="K40" t="n">
         <v>336431000000</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1272</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.3807</v>
+      </c>
+      <c r="O40" t="n">
         <v>0.0353</v>
       </c>
-      <c r="M40" t="n">
+      <c r="P40" t="n">
         <v>0.0159</v>
       </c>
-      <c r="N40" t="n">
+      <c r="Q40" t="n">
+        <v>0.9647</v>
+      </c>
+      <c r="R40" t="n">
         <v>0.0055</v>
       </c>
-      <c r="O40" t="n">
+      <c r="S40" t="n">
         <v>0.0135</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="41">
@@ -2770,24 +3316,39 @@
         <v>3550972000000</v>
       </c>
       <c r="J41" t="n">
+        <v>79916346000000</v>
+      </c>
+      <c r="K41" t="n">
         <v>1863123000000</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.081</v>
+      </c>
+      <c r="O41" t="n">
         <v>0.0425</v>
       </c>
-      <c r="M41" t="n">
+      <c r="P41" t="n">
         <v>0.0223</v>
       </c>
-      <c r="N41" t="n">
+      <c r="Q41" t="n">
+        <v>0.9575</v>
+      </c>
+      <c r="R41" t="n">
         <v>0.0338</v>
       </c>
-      <c r="O41" t="n">
+      <c r="S41" t="n">
         <v>0.0828</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.1579</v>
       </c>
     </row>
     <row r="42">
@@ -2827,24 +3388,39 @@
         <v>1497388000000</v>
       </c>
       <c r="J42" t="n">
+        <v>18918484000000</v>
+      </c>
+      <c r="K42" t="n">
         <v>546529000000</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.0329</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.2037</v>
+      </c>
+      <c r="O42" t="n">
         <v>0.0733</v>
       </c>
-      <c r="M42" t="n">
+      <c r="P42" t="n">
         <v>0.0268</v>
       </c>
-      <c r="N42" t="n">
+      <c r="Q42" t="n">
+        <v>0.9267</v>
+      </c>
+      <c r="R42" t="n">
         <v>0.0095</v>
       </c>
-      <c r="O42" t="n">
+      <c r="S42" t="n">
         <v>0.0234</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.0641</v>
       </c>
     </row>
     <row r="43">
@@ -2884,24 +3460,39 @@
         <v>741917000000</v>
       </c>
       <c r="J43" t="n">
+        <v>19256540000000</v>
+      </c>
+      <c r="K43" t="n">
         <v>195254000000</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.0635</v>
+      </c>
+      <c r="O43" t="n">
         <v>0.0371</v>
       </c>
-      <c r="M43" t="n">
+      <c r="P43" t="n">
         <v>0.0098</v>
       </c>
-      <c r="N43" t="n">
+      <c r="Q43" t="n">
+        <v>0.9629</v>
+      </c>
+      <c r="R43" t="n">
         <v>0.0034</v>
       </c>
-      <c r="O43" t="n">
+      <c r="S43" t="n">
         <v>0.0083</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.0315</v>
       </c>
     </row>
     <row r="44">
@@ -2941,24 +3532,39 @@
         <v>996660000000</v>
       </c>
       <c r="J44" t="n">
+        <v>19712680000000</v>
+      </c>
+      <c r="K44" t="n">
         <v>485262000000</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.0221</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="O44" t="n">
         <v>0.0481</v>
       </c>
-      <c r="M44" t="n">
+      <c r="P44" t="n">
         <v>0.0234</v>
       </c>
-      <c r="N44" t="n">
+      <c r="Q44" t="n">
+        <v>0.9519</v>
+      </c>
+      <c r="R44" t="n">
         <v>0.0078</v>
       </c>
-      <c r="O44" t="n">
+      <c r="S44" t="n">
         <v>0.02</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.0411</v>
       </c>
     </row>
     <row r="45">
@@ -2998,24 +3604,39 @@
         <v>3549074000000</v>
       </c>
       <c r="J45" t="n">
+        <v>80678691000000</v>
+      </c>
+      <c r="K45" t="n">
         <v>1150611000000</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="O45" t="n">
         <v>0.0421</v>
       </c>
-      <c r="M45" t="n">
+      <c r="P45" t="n">
         <v>0.0137</v>
       </c>
-      <c r="N45" t="n">
+      <c r="Q45" t="n">
+        <v>0.9579</v>
+      </c>
+      <c r="R45" t="n">
         <v>0.0191</v>
       </c>
-      <c r="O45" t="n">
+      <c r="S45" t="n">
         <v>0.049</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.151</v>
       </c>
     </row>
     <row r="46">
@@ -3055,24 +3676,39 @@
         <v>1335411000000</v>
       </c>
       <c r="J46" t="n">
+        <v>19760538000000</v>
+      </c>
+      <c r="K46" t="n">
         <v>585415000000</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0333</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.1082</v>
+      </c>
+      <c r="O46" t="n">
         <v>0.0633</v>
       </c>
-      <c r="M46" t="n">
+      <c r="P46" t="n">
         <v>0.0278</v>
       </c>
-      <c r="N46" t="n">
+      <c r="Q46" t="n">
+        <v>0.9367</v>
+      </c>
+      <c r="R46" t="n">
         <v>0.0095</v>
       </c>
-      <c r="O46" t="n">
+      <c r="S46" t="n">
         <v>0.0239</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.0546</v>
       </c>
     </row>
     <row r="47">
@@ -3112,24 +3748,39 @@
         <v>1196146000000</v>
       </c>
       <c r="J47" t="n">
+        <v>20498220000000</v>
+      </c>
+      <c r="K47" t="n">
         <v>629470000000</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0848</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.6122</v>
+      </c>
+      <c r="O47" t="n">
         <v>0.0551</v>
       </c>
-      <c r="M47" t="n">
+      <c r="P47" t="n">
         <v>0.029</v>
       </c>
-      <c r="N47" t="n">
+      <c r="Q47" t="n">
+        <v>0.9449</v>
+      </c>
+      <c r="R47" t="n">
         <v>0.01</v>
       </c>
-      <c r="O47" t="n">
+      <c r="S47" t="n">
         <v>0.0249</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.0474</v>
       </c>
     </row>
     <row r="48">
@@ -3169,24 +3820,39 @@
         <v>751880000000</v>
       </c>
       <c r="J48" t="n">
+        <v>21424490000000</v>
+      </c>
+      <c r="K48" t="n">
         <v>90234000000</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.2456</v>
+      </c>
+      <c r="O48" t="n">
         <v>0.0339</v>
       </c>
-      <c r="M48" t="n">
+      <c r="P48" t="n">
         <v>0.0041</v>
       </c>
-      <c r="N48" t="n">
+      <c r="Q48" t="n">
+        <v>0.9661</v>
+      </c>
+      <c r="R48" t="n">
         <v>0.0014</v>
       </c>
-      <c r="O48" t="n">
+      <c r="S48" t="n">
         <v>0.0037</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.0308</v>
       </c>
     </row>
     <row r="49">
@@ -3226,24 +3892,39 @@
         <v>3419675000000</v>
       </c>
       <c r="J49" t="n">
+        <v>84308507000000</v>
+      </c>
+      <c r="K49" t="n">
         <v>591365000000</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0416</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.0365</v>
+      </c>
+      <c r="O49" t="n">
         <v>0.039</v>
       </c>
-      <c r="M49" t="n">
+      <c r="P49" t="n">
         <v>0.0067</v>
       </c>
-      <c r="N49" t="n">
+      <c r="Q49" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="R49" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="O49" t="n">
+      <c r="S49" t="n">
         <v>0.0235</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.1356</v>
       </c>
     </row>
     <row r="50">
@@ -3283,24 +3964,35 @@
         <v>2012751105263.158</v>
       </c>
       <c r="J50" t="n">
+        <v>45801292900000.02</v>
+      </c>
+      <c r="K50" t="n">
         <v>531787589473.6838</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="n">
         <v>0.0421</v>
       </c>
-      <c r="M50" t="n">
+      <c r="P50" t="n">
         <v>0.0111</v>
       </c>
-      <c r="N50" t="n">
+      <c r="Q50" t="n">
+        <v>0.9579</v>
+      </c>
+      <c r="R50" t="n">
         <v>0.008</v>
       </c>
-      <c r="O50" t="n">
+      <c r="S50" t="n">
         <v>0.02</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.0757</v>
       </c>
     </row>
     <row r="51">
@@ -3340,24 +4032,35 @@
         <v>2047310781954.887</v>
       </c>
       <c r="J51" t="n">
+        <v>47080257842857.16</v>
+      </c>
+      <c r="K51" t="n">
         <v>511545207518.7966</v>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="n">
         <v>0.0417</v>
       </c>
-      <c r="M51" t="n">
+      <c r="P51" t="n">
         <v>0.0104</v>
       </c>
-      <c r="N51" t="n">
+      <c r="Q51" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="R51" t="n">
         <v>0.0076</v>
       </c>
-      <c r="O51" t="n">
+      <c r="S51" t="n">
         <v>0.0189</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.0757</v>
       </c>
     </row>
     <row r="52">
@@ -3397,24 +4100,35 @@
         <v>2081870458646.616</v>
       </c>
       <c r="J52" t="n">
+        <v>48359222785714.3</v>
+      </c>
+      <c r="K52" t="n">
         <v>491302825563.9093</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="n">
         <v>0.0413</v>
       </c>
-      <c r="M52" t="n">
+      <c r="P52" t="n">
         <v>0.0097</v>
       </c>
-      <c r="N52" t="n">
+      <c r="Q52" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="R52" t="n">
         <v>0.0072</v>
       </c>
-      <c r="O52" t="n">
+      <c r="S52" t="n">
         <v>0.0179</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.0757</v>
       </c>
     </row>
     <row r="53">
@@ -3454,24 +4168,35 @@
         <v>2116430135338.346</v>
       </c>
       <c r="J53" t="n">
+        <v>49638187728571.44</v>
+      </c>
+      <c r="K53" t="n">
         <v>471060443609.0221</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="n">
         <v>0.0409</v>
       </c>
-      <c r="M53" t="n">
+      <c r="P53" t="n">
         <v>0.0091</v>
       </c>
-      <c r="N53" t="n">
+      <c r="Q53" t="n">
+        <v>0.9591</v>
+      </c>
+      <c r="R53" t="n">
         <v>0.0068</v>
       </c>
-      <c r="O53" t="n">
+      <c r="S53" t="n">
         <v>0.0168</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.0757</v>
       </c>
     </row>
     <row r="54">
@@ -3511,24 +4236,35 @@
         <v>2150989812030.075</v>
       </c>
       <c r="J54" t="n">
+        <v>50917152671428.58</v>
+      </c>
+      <c r="K54" t="n">
         <v>450818061654.1348</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="n">
         <v>0.0405</v>
       </c>
-      <c r="M54" t="n">
+      <c r="P54" t="n">
         <v>0.008500000000000001</v>
       </c>
-      <c r="N54" t="n">
+      <c r="Q54" t="n">
+        <v>0.9595</v>
+      </c>
+      <c r="R54" t="n">
         <v>0.0064</v>
       </c>
-      <c r="O54" t="n">
+      <c r="S54" t="n">
         <v>0.0159</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.0757</v>
       </c>
     </row>
     <row r="55">
@@ -3568,24 +4304,35 @@
         <v>2185549488721.804</v>
       </c>
       <c r="J55" t="n">
+        <v>52196117614285.73</v>
+      </c>
+      <c r="K55" t="n">
         <v>430575679699.2476</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="n">
         <v>0.0402</v>
       </c>
-      <c r="M55" t="n">
+      <c r="P55" t="n">
         <v>0.007900000000000001</v>
       </c>
-      <c r="N55" t="n">
+      <c r="Q55" t="n">
+        <v>0.9598</v>
+      </c>
+      <c r="R55" t="n">
         <v>0.006</v>
       </c>
-      <c r="O55" t="n">
+      <c r="S55" t="n">
         <v>0.0149</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.0757</v>
       </c>
     </row>
     <row r="56">
@@ -3625,24 +4372,35 @@
         <v>2220109165413.534</v>
       </c>
       <c r="J56" t="n">
+        <v>53475082557142.88</v>
+      </c>
+      <c r="K56" t="n">
         <v>410333297744.3604</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="n">
         <v>0.0399</v>
       </c>
-      <c r="M56" t="n">
+      <c r="P56" t="n">
         <v>0.0074</v>
       </c>
-      <c r="N56" t="n">
+      <c r="Q56" t="n">
+        <v>0.9601</v>
+      </c>
+      <c r="R56" t="n">
         <v>0.0057</v>
       </c>
-      <c r="O56" t="n">
+      <c r="S56" t="n">
         <v>0.014</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.0757</v>
       </c>
     </row>
     <row r="57">
@@ -3682,24 +4440,35 @@
         <v>2254668842105.263</v>
       </c>
       <c r="J57" t="n">
+        <v>54754047500000.02</v>
+      </c>
+      <c r="K57" t="n">
         <v>390090915789.4731</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="n">
         <v>0.0395</v>
       </c>
-      <c r="M57" t="n">
+      <c r="P57" t="n">
         <v>0.0068</v>
       </c>
-      <c r="N57" t="n">
+      <c r="Q57" t="n">
+        <v>0.9605</v>
+      </c>
+      <c r="R57" t="n">
         <v>0.0053</v>
       </c>
-      <c r="O57" t="n">
+      <c r="S57" t="n">
         <v>0.0131</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.0756</v>
       </c>
     </row>
   </sheetData>

--- a/삼성전자_2020-2024_재무분석_requests.xlsx
+++ b/삼성전자_2020-2024_재무분석_requests.xlsx
@@ -585,22 +585,22 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>0.1165</v>
+        <v>11.6535</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0883</v>
+        <v>8.829499999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8835</v>
+        <v>88.34650000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0137</v>
+        <v>1.3666</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0183</v>
+        <v>1.8338</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0242</v>
+        <v>2.4203</v>
       </c>
     </row>
     <row r="3">
@@ -653,22 +653,22 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>0.1538</v>
+        <v>15.3802</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1049</v>
+        <v>10.488</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8462</v>
+        <v>84.6198</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0155</v>
+        <v>1.5519</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0206</v>
+        <v>2.0589</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0302</v>
+        <v>3.0193</v>
       </c>
     </row>
     <row r="4">
@@ -721,22 +721,22 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.1845</v>
+        <v>18.4475</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1398</v>
+        <v>13.9787</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8155</v>
+        <v>81.55249999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0249</v>
+        <v>2.4909</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0339</v>
+        <v>3.3899</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0447</v>
+        <v>4.4736</v>
       </c>
     </row>
     <row r="5">
@@ -789,22 +789,22 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.152</v>
+        <v>15.1997</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1115</v>
+        <v>11.1516</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.848</v>
+        <v>84.80029999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0698</v>
+        <v>6.9818</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09569999999999999</v>
+        <v>9.569900000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1304</v>
+        <v>13.0437</v>
       </c>
     </row>
     <row r="6">
@@ -855,28 +855,28 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>0.1819</v>
+        <v>18.1894</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4553</v>
+        <v>45.5307</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1435</v>
+        <v>14.3494</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1092</v>
+        <v>10.9219</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8565</v>
+        <v>85.6506</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0182</v>
+        <v>1.818</v>
       </c>
       <c r="S6" t="n">
-        <v>0.026</v>
+        <v>2.6039</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0342</v>
+        <v>3.4211</v>
       </c>
     </row>
     <row r="7">
@@ -927,28 +927,28 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>0.2021</v>
+        <v>20.2119</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5426</v>
+        <v>54.2634</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1974</v>
+        <v>19.7368</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1513</v>
+        <v>15.1315</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8026</v>
+        <v>80.2632</v>
       </c>
       <c r="R7" t="n">
-        <v>0.025</v>
+        <v>2.5039</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0341</v>
+        <v>3.4126</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0445</v>
+        <v>4.4512</v>
       </c>
     </row>
     <row r="8">
@@ -999,28 +999,28 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>0.1048</v>
+        <v>10.4758</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2804</v>
+        <v>28.0436</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2138</v>
+        <v>21.3811</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1662</v>
+        <v>16.6173</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7862</v>
+        <v>78.6189</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03</v>
+        <v>2.9953</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0414</v>
+        <v>4.1424</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0533</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="9">
@@ -1071,28 +1071,28 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>0.1807</v>
+        <v>18.0729</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4345</v>
+        <v>43.4518</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1847</v>
+        <v>18.4667</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1427</v>
+        <v>14.2728</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8153</v>
+        <v>81.5333</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0935</v>
+        <v>9.3543</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1309</v>
+        <v>13.0887</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1693</v>
+        <v>16.9347</v>
       </c>
     </row>
     <row r="10">
@@ -1143,28 +1143,28 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>0.1895</v>
+        <v>18.9529</v>
       </c>
       <c r="N10" t="n">
-        <v>0.505</v>
+        <v>50.5021</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1816</v>
+        <v>18.1552</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1456</v>
+        <v>14.5595</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8184</v>
+        <v>81.84480000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0258</v>
+        <v>2.5777</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0359</v>
+        <v>3.5918</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0448</v>
+        <v>4.4789</v>
       </c>
     </row>
     <row r="11">
@@ -1215,28 +1215,28 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>0.2125</v>
+        <v>21.2528</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1218</v>
+        <v>12.1774</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1826</v>
+        <v>18.2596</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1438</v>
+        <v>14.376</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8174</v>
+        <v>81.74039999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0248</v>
+        <v>2.4772</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0338</v>
+        <v>3.3847</v>
       </c>
       <c r="T11" t="n">
-        <v>0.043</v>
+        <v>4.2991</v>
       </c>
     </row>
     <row r="12">
@@ -1287,28 +1287,28 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>0.0379</v>
+        <v>3.7882</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.3139</v>
+        <v>-31.3923</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1413</v>
+        <v>14.1336</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1223</v>
+        <v>12.2284</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8587</v>
+        <v>85.8664</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02</v>
+        <v>1.9965</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0272</v>
+        <v>2.7222</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0315</v>
+        <v>3.1464</v>
       </c>
     </row>
     <row r="13">
@@ -1359,28 +1359,28 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>0.0809</v>
+        <v>8.0923</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1599</v>
+        <v>-15.9919</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1435</v>
+        <v>14.3521</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1841</v>
+        <v>18.4144</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8565</v>
+        <v>85.64790000000001</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1241</v>
+        <v>12.411</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1569</v>
+        <v>15.6883</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1223</v>
+        <v>12.2274</v>
       </c>
     </row>
     <row r="14">
@@ -1431,28 +1431,28 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-0.1805</v>
+        <v>-18.0456</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.9547</v>
+        <v>-95.4666</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01</v>
+        <v>1.0043</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0247</v>
+        <v>2.4701</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.99</v>
+        <v>98.9957</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0035</v>
+        <v>0.3468</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0044</v>
+        <v>0.4376</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0018</v>
+        <v>0.1779</v>
       </c>
     </row>
     <row r="15">
@@ -1503,28 +1503,28 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-0.2228</v>
+        <v>-22.2763</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.9526</v>
+        <v>-95.25749999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0111</v>
+        <v>1.1141</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0287</v>
+        <v>2.8724</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9889</v>
+        <v>98.88590000000001</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0038</v>
+        <v>0.3847</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0048</v>
+        <v>0.4801</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0019</v>
+        <v>0.1862</v>
       </c>
     </row>
     <row r="16">
@@ -1575,28 +1575,28 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-0.1221</v>
+        <v>-12.2126</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.7758</v>
+        <v>-77.5753</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0361</v>
+        <v>3.6103</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0867</v>
+        <v>8.670299999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9639</v>
+        <v>96.3897</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0129</v>
+        <v>1.2859</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0161</v>
+        <v>1.606</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0067</v>
+        <v>0.6688</v>
       </c>
     </row>
     <row r="17">
@@ -1647,28 +1647,28 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-0.1433</v>
+        <v>-14.3254</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.8486</v>
+        <v>-84.86060000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0254</v>
+        <v>2.5361</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0598</v>
+        <v>5.9811</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9746</v>
+        <v>97.4639</v>
       </c>
       <c r="R17" t="n">
-        <v>0.034</v>
+        <v>3.397</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0426</v>
+        <v>4.2585</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0181</v>
+        <v>1.8057</v>
       </c>
     </row>
     <row r="18">
@@ -1719,28 +1719,28 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>0.1282</v>
+        <v>12.817</v>
       </c>
       <c r="N18" t="n">
-        <v>9.319000000000001</v>
+        <v>931.9019</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0919</v>
+        <v>9.1858</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0939</v>
+        <v>9.3925</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9081</v>
+        <v>90.8142</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0143</v>
+        <v>1.4344</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0182</v>
+        <v>1.8162</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0178</v>
+        <v>1.7762</v>
       </c>
     </row>
     <row r="19">
@@ -1791,28 +1791,28 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>0.2344</v>
+        <v>23.4358</v>
       </c>
       <c r="N19" t="n">
-        <v>14.6218</v>
+        <v>1462.1756</v>
       </c>
       <c r="O19" t="n">
-        <v>0.141</v>
+        <v>14.1003</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1329</v>
+        <v>13.2869</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.859</v>
+        <v>85.8997</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0203</v>
+        <v>2.026</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0257</v>
+        <v>2.566</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0272</v>
+        <v>2.7231</v>
       </c>
     </row>
     <row r="20">
@@ -1863,28 +1863,28 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>0.1735</v>
+        <v>17.3491</v>
       </c>
       <c r="N20" t="n">
-        <v>2.7737</v>
+        <v>277.3677</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1161</v>
+        <v>11.61</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1277</v>
+        <v>12.77</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8839</v>
+        <v>88.39</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0206</v>
+        <v>2.0559</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0261</v>
+        <v>2.6149</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0238</v>
+        <v>2.3774</v>
       </c>
     </row>
     <row r="21">
@@ -1935,28 +1935,28 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>0.162</v>
+        <v>16.1953</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9834</v>
+        <v>398.3414</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1088</v>
+        <v>10.8771</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1145</v>
+        <v>11.4505</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8912</v>
+        <v>89.1229</v>
       </c>
       <c r="R21" t="n">
-        <v>0.067</v>
+        <v>6.6957</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0857</v>
+        <v>8.565899999999999</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0814</v>
+        <v>8.136900000000001</v>
       </c>
     </row>
     <row r="22">
@@ -2006,25 +2006,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>119.1286</v>
+      </c>
+      <c r="N22" t="n">
+        <v>95.18989999999999</v>
+      </c>
       <c r="O22" t="n">
-        <v>0.0818</v>
+        <v>8.1823</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1072</v>
+        <v>10.7248</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9182</v>
+        <v>91.8177</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0331</v>
+        <v>3.306</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0414</v>
+        <v>4.1446</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0316</v>
+        <v>3.162</v>
       </c>
     </row>
     <row r="23">
@@ -2074,25 +2078,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>117.5625</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21.3572</v>
+      </c>
       <c r="O23" t="n">
-        <v>0.07870000000000001</v>
+        <v>7.8652</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1063</v>
+        <v>10.6346</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9213</v>
+        <v>92.1348</v>
       </c>
       <c r="R23" t="n">
-        <v>0.033</v>
+        <v>3.3042</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0413</v>
+        <v>4.1265</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0305</v>
+        <v>3.0519</v>
       </c>
     </row>
     <row r="24">
@@ -2142,25 +2150,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>108.2233</v>
+      </c>
+      <c r="N24" t="n">
+        <v>35.6205</v>
+      </c>
       <c r="O24" t="n">
-        <v>0.0756</v>
+        <v>7.5619</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1055</v>
+        <v>10.5483</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9244</v>
+        <v>92.43810000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>0.033</v>
+        <v>3.3024</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0411</v>
+        <v>4.1091</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0295</v>
+        <v>2.9458</v>
       </c>
     </row>
     <row r="25">
@@ -2210,25 +2222,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>-44.076</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-62.6148</v>
+      </c>
       <c r="O25" t="n">
-        <v>0.0727</v>
+        <v>7.2713</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1047</v>
+        <v>10.4657</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9273</v>
+        <v>92.7287</v>
       </c>
       <c r="R25" t="n">
-        <v>0.033</v>
+        <v>3.3007</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0409</v>
+        <v>4.0924</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0284</v>
+        <v>2.8433</v>
       </c>
     </row>
     <row r="26">
@@ -2278,25 +2294,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>9.029</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-6.8206</v>
+      </c>
       <c r="O26" t="n">
-        <v>0.0699</v>
+        <v>6.9928</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1039</v>
+        <v>10.3864</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9301</v>
+        <v>93.0072</v>
       </c>
       <c r="R26" t="n">
-        <v>0.033</v>
+        <v>3.299</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0408</v>
+        <v>4.0761</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0274</v>
+        <v>2.7443</v>
       </c>
     </row>
     <row r="27">
@@ -2346,25 +2366,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>8.829700000000001</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-6.9389</v>
+      </c>
       <c r="O27" t="n">
-        <v>0.0673</v>
+        <v>6.7256</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1031</v>
+        <v>10.3104</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9327</v>
+        <v>93.2744</v>
       </c>
       <c r="R27" t="n">
-        <v>0.033</v>
+        <v>3.2974</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0406</v>
+        <v>4.0605</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0265</v>
+        <v>2.6487</v>
       </c>
     </row>
     <row r="28">
@@ -2414,25 +2438,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>8.638999999999999</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-7.0614</v>
+      </c>
       <c r="O28" t="n">
-        <v>0.06469999999999999</v>
+        <v>6.469</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1024</v>
+        <v>10.2374</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9353</v>
+        <v>93.53100000000001</v>
       </c>
       <c r="R28" t="n">
-        <v>0.033</v>
+        <v>3.2959</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0405</v>
+        <v>4.0453</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0256</v>
+        <v>2.5562</v>
       </c>
     </row>
     <row r="29">
@@ -2482,25 +2510,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>8.4564</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-7.1883</v>
+      </c>
       <c r="O29" t="n">
-        <v>0.0622</v>
+        <v>6.2224</v>
       </c>
       <c r="P29" t="n">
-        <v>0.1017</v>
+        <v>10.1673</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.9378</v>
+        <v>93.77760000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0329</v>
+        <v>3.2943</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0403</v>
+        <v>4.0307</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0247</v>
+        <v>2.4668</v>
       </c>
     </row>
     <row r="30">
@@ -2553,22 +2585,22 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>0.074</v>
+        <v>7.4037</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0738</v>
+        <v>7.3788</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.926</v>
+        <v>92.5963</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0238</v>
+        <v>2.3847</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0625</v>
+        <v>6.2489</v>
       </c>
       <c r="T30" t="n">
-        <v>0.06270000000000001</v>
+        <v>6.2701</v>
       </c>
     </row>
     <row r="31">
@@ -2621,22 +2653,22 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>0.0386</v>
+        <v>3.8604</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0051</v>
+        <v>0.5108</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9614</v>
+        <v>96.1396</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0015</v>
+        <v>0.1464</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0038</v>
+        <v>0.3776</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0285</v>
+        <v>2.8541</v>
       </c>
     </row>
     <row r="32">
@@ -2689,22 +2721,22 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>0.0567</v>
+        <v>5.6679</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0384</v>
+        <v>3.8371</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.9433</v>
+        <v>94.3321</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0131</v>
+        <v>1.3143</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0365</v>
+        <v>3.6531</v>
       </c>
       <c r="T32" t="n">
-        <v>0.054</v>
+        <v>5.396</v>
       </c>
     </row>
     <row r="33">
@@ -2757,22 +2789,22 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="n">
-        <v>0.0505</v>
+        <v>5.0504</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0326</v>
+        <v>3.2623</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.9495</v>
+        <v>94.9496</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0428</v>
+        <v>4.2813</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1176</v>
+        <v>11.7648</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1821</v>
+        <v>18.2132</v>
       </c>
     </row>
     <row r="34">
@@ -2823,28 +2855,28 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>0.2771</v>
+        <v>27.7141</v>
       </c>
       <c r="N34" t="n">
-        <v>0.3909</v>
+        <v>39.0903</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0806</v>
+        <v>8.0632</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0622</v>
+        <v>6.2157</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.9194</v>
+        <v>91.93680000000001</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0232</v>
+        <v>2.317</v>
       </c>
       <c r="S34" t="n">
-        <v>0.062</v>
+        <v>6.2021</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0805</v>
+        <v>8.045500000000001</v>
       </c>
     </row>
     <row r="35">
@@ -2895,28 +2927,28 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>0.3335</v>
+        <v>33.3499</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7725</v>
+        <v>77.24679999999999</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0513</v>
+        <v>5.1312</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.0171</v>
+        <v>-1.706</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.9487</v>
+        <v>94.86879999999999</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.0058</v>
+        <v>-0.5762</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.0156</v>
+        <v>-1.5612</v>
       </c>
       <c r="T35" t="n">
-        <v>0.047</v>
+        <v>4.6956</v>
       </c>
     </row>
     <row r="36">
@@ -2967,28 +2999,28 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>0.1104</v>
+        <v>11.0351</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.4362</v>
+        <v>-43.6173</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0288</v>
+        <v>2.8781</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0275</v>
+        <v>2.7492</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.9712</v>
+        <v>97.1219</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0095</v>
+        <v>0.9466</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0254</v>
+        <v>2.5436</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0266</v>
+        <v>2.6629</v>
       </c>
     </row>
     <row r="37">
@@ -3039,28 +3071,28 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>0.1811</v>
+        <v>18.1145</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2093</v>
+        <v>20.9324</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0517</v>
+        <v>5.1709</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0189</v>
+        <v>1.8937</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.9483</v>
+        <v>94.8291</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0265</v>
+        <v>2.6457</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0704</v>
+        <v>7.0404</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1922</v>
+        <v>19.2246</v>
       </c>
     </row>
     <row r="38">
@@ -3111,28 +3143,28 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>0.1224</v>
+        <v>12.238</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2399</v>
+        <v>23.9895</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0891</v>
+        <v>8.907400000000001</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0664</v>
+        <v>6.6362</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.9109</v>
+        <v>91.0926</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0254</v>
+        <v>2.5449</v>
       </c>
       <c r="S38" t="n">
-        <v>0.064</v>
+        <v>6.403</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0859</v>
+        <v>8.5944</v>
       </c>
     </row>
     <row r="39">
@@ -3183,28 +3215,28 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>0.1373</v>
+        <v>13.7324</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0978</v>
+        <v>-9.7811</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0407</v>
+        <v>4.0703</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0174</v>
+        <v>1.7367</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.9593</v>
+        <v>95.9297</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0061</v>
+        <v>0.6105</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0145</v>
+        <v>1.4537</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0341</v>
+        <v>3.4071</v>
       </c>
     </row>
     <row r="40">
@@ -3255,28 +3287,28 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>0.1272</v>
+        <v>12.7224</v>
       </c>
       <c r="N40" t="n">
-        <v>0.3807</v>
+        <v>38.0726</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0353</v>
+        <v>3.5254</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0159</v>
+        <v>1.5887</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.9647</v>
+        <v>96.4746</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0055</v>
+        <v>0.5488</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0135</v>
+        <v>1.3514</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03</v>
+        <v>2.9988</v>
       </c>
     </row>
     <row r="41">
@@ -3327,28 +3359,28 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>0.117</v>
+        <v>11.7044</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.081</v>
+        <v>-8.095800000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0425</v>
+        <v>4.2543</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0223</v>
+        <v>2.2322</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.9575</v>
+        <v>95.7457</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0338</v>
+        <v>3.3779</v>
       </c>
       <c r="S41" t="n">
-        <v>0.0828</v>
+        <v>8.2835</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1579</v>
+        <v>15.7877</v>
       </c>
     </row>
     <row r="42">
@@ -3399,28 +3431,28 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-0.0329</v>
+        <v>-3.2945</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.2037</v>
+        <v>-20.3721</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0733</v>
+        <v>7.3344</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0268</v>
+        <v>2.677</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.9267</v>
+        <v>92.6656</v>
       </c>
       <c r="R42" t="n">
-        <v>0.0095</v>
+        <v>0.9506</v>
       </c>
       <c r="S42" t="n">
-        <v>0.0234</v>
+        <v>2.3396</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0641</v>
+        <v>6.4101</v>
       </c>
     </row>
     <row r="43">
@@ -3471,28 +3503,28 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>0.0275</v>
+        <v>2.7456</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.0635</v>
+        <v>-6.3536</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0371</v>
+        <v>3.7099</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0098</v>
+        <v>0.9762999999999999</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.9629</v>
+        <v>96.2901</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0034</v>
+        <v>0.3357</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0083</v>
+        <v>0.829</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0315</v>
+        <v>3.1502</v>
       </c>
     </row>
     <row r="44">
@@ -3543,28 +3575,28 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-0.0221</v>
+        <v>-2.2073</v>
       </c>
       <c r="N44" t="n">
-        <v>0.335</v>
+        <v>33.5009</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0481</v>
+        <v>4.8126</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0234</v>
+        <v>2.3432</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.9519</v>
+        <v>95.1874</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0078</v>
+        <v>0.7839</v>
       </c>
       <c r="S44" t="n">
-        <v>0.02</v>
+        <v>2.0031</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0411</v>
+        <v>4.1142</v>
       </c>
     </row>
     <row r="45">
@@ -3615,28 +3647,28 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>0.0091</v>
+        <v>0.9111</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.0005</v>
+        <v>-0.0535</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0421</v>
+        <v>4.2137</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0137</v>
+        <v>1.3661</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.9579</v>
+        <v>95.7863</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0191</v>
+        <v>1.91</v>
       </c>
       <c r="S45" t="n">
-        <v>0.049</v>
+        <v>4.8965</v>
       </c>
       <c r="T45" t="n">
-        <v>0.151</v>
+        <v>15.1034</v>
       </c>
     </row>
     <row r="46">
@@ -3687,28 +3719,28 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>0.0333</v>
+        <v>3.3311</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.1082</v>
+        <v>-10.8173</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0633</v>
+        <v>6.3302</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0278</v>
+        <v>2.775</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.9367</v>
+        <v>93.6698</v>
       </c>
       <c r="R46" t="n">
-        <v>0.0095</v>
+        <v>0.954</v>
       </c>
       <c r="S46" t="n">
-        <v>0.0239</v>
+        <v>2.3934</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0546</v>
+        <v>5.4597</v>
       </c>
     </row>
     <row r="47">
@@ -3759,28 +3791,28 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>0.0848</v>
+        <v>8.4802</v>
       </c>
       <c r="N47" t="n">
-        <v>0.6122</v>
+        <v>61.2237</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0551</v>
+        <v>5.5136</v>
       </c>
       <c r="P47" t="n">
-        <v>0.029</v>
+        <v>2.9015</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.9449</v>
+        <v>94.4864</v>
       </c>
       <c r="R47" t="n">
-        <v>0.01</v>
+        <v>0.9972</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0249</v>
+        <v>2.4934</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0474</v>
+        <v>4.7381</v>
       </c>
     </row>
     <row r="48">
@@ -3831,28 +3863,28 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>0.0708</v>
+        <v>7.0839</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.2456</v>
+        <v>-24.56</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0339</v>
+        <v>3.3905</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0041</v>
+        <v>0.4069</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.9661</v>
+        <v>96.6095</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0014</v>
+        <v>0.1403</v>
       </c>
       <c r="S48" t="n">
-        <v>0.0037</v>
+        <v>0.3695</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0308</v>
+        <v>3.079</v>
       </c>
     </row>
     <row r="49">
@@ -3903,28 +3935,28 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>0.0416</v>
+        <v>4.1559</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.0365</v>
+        <v>-3.646</v>
       </c>
       <c r="O49" t="n">
-        <v>0.039</v>
+        <v>3.898</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0067</v>
+        <v>0.6741</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.961</v>
+        <v>96.102</v>
       </c>
       <c r="R49" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.9011</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0235</v>
+        <v>2.3456</v>
       </c>
       <c r="T49" t="n">
-        <v>0.1356</v>
+        <v>13.5639</v>
       </c>
     </row>
     <row r="50">
@@ -3974,25 +4006,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>126.6504</v>
+      </c>
+      <c r="N50" t="n">
+        <v>50.7215</v>
+      </c>
       <c r="O50" t="n">
-        <v>0.0421</v>
+        <v>4.2095</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0111</v>
+        <v>1.1122</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.9579</v>
+        <v>95.79049999999999</v>
       </c>
       <c r="R50" t="n">
-        <v>0.008</v>
+        <v>0.8</v>
       </c>
       <c r="S50" t="n">
-        <v>0.02</v>
+        <v>2.0012</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0757</v>
+        <v>7.5745</v>
       </c>
     </row>
     <row r="51">
@@ -4042,25 +4078,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>126.4531</v>
+      </c>
+      <c r="N51" t="n">
+        <v>71.1589</v>
+      </c>
       <c r="O51" t="n">
-        <v>0.0417</v>
+        <v>4.1673</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0104</v>
+        <v>1.0413</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.9583</v>
+        <v>95.8327</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0076</v>
+        <v>0.7579</v>
       </c>
       <c r="S51" t="n">
-        <v>0.0189</v>
+        <v>1.8922</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0757</v>
+        <v>7.5729</v>
       </c>
     </row>
     <row r="52">
@@ -4110,25 +4150,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>127.4542</v>
+      </c>
+      <c r="N52" t="n">
+        <v>176.8887</v>
+      </c>
       <c r="O52" t="n">
-        <v>0.0413</v>
+        <v>4.1273</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0097</v>
+        <v>0.974</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.9587</v>
+        <v>95.87269999999999</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0072</v>
+        <v>0.7171999999999999</v>
       </c>
       <c r="S52" t="n">
-        <v>0.0179</v>
+        <v>1.7868</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0757</v>
+        <v>7.5715</v>
       </c>
     </row>
     <row r="53">
@@ -4178,25 +4222,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>-41.0057</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-38.1102</v>
+      </c>
       <c r="O53" t="n">
-        <v>0.0409</v>
+        <v>4.0894</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0091</v>
+        <v>0.9102</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.9591</v>
+        <v>95.9106</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0068</v>
+        <v>0.6776</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0168</v>
+        <v>1.6849</v>
       </c>
       <c r="T53" t="n">
-        <v>0.0757</v>
+        <v>7.5701</v>
       </c>
     </row>
     <row r="54">
@@ -4246,25 +4294,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>10.9886</v>
+      </c>
+      <c r="N54" t="n">
+        <v>6.8681</v>
+      </c>
       <c r="O54" t="n">
-        <v>0.0405</v>
+        <v>4.0533</v>
       </c>
       <c r="P54" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.8495</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.9595</v>
+        <v>95.94670000000001</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0064</v>
+        <v>0.6391</v>
       </c>
       <c r="S54" t="n">
-        <v>0.0159</v>
+        <v>1.5863</v>
       </c>
       <c r="T54" t="n">
-        <v>0.0757</v>
+        <v>7.5687</v>
       </c>
     </row>
     <row r="55">
@@ -4314,25 +4366,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>10.6948</v>
+      </c>
+      <c r="N55" t="n">
+        <v>6.7522</v>
+      </c>
       <c r="O55" t="n">
-        <v>0.0402</v>
+        <v>4.0189</v>
       </c>
       <c r="P55" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.7917999999999999</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.9598</v>
+        <v>95.9811</v>
       </c>
       <c r="R55" t="n">
-        <v>0.006</v>
+        <v>0.6018</v>
       </c>
       <c r="S55" t="n">
-        <v>0.0149</v>
+        <v>1.4909</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0757</v>
+        <v>7.5674</v>
       </c>
     </row>
     <row r="56">
@@ -4382,25 +4438,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>10.4163</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.6401</v>
+      </c>
       <c r="O56" t="n">
-        <v>0.0399</v>
+        <v>3.9862</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0074</v>
+        <v>0.7367</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.9601</v>
+        <v>96.0138</v>
       </c>
       <c r="R56" t="n">
-        <v>0.0057</v>
+        <v>0.5654</v>
       </c>
       <c r="S56" t="n">
-        <v>0.014</v>
+        <v>1.3984</v>
       </c>
       <c r="T56" t="n">
-        <v>0.0757</v>
+        <v>7.5661</v>
       </c>
     </row>
     <row r="57">
@@ -4450,25 +4510,29 @@
           <t>흑자</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>10.1519</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.5317</v>
+      </c>
       <c r="O57" t="n">
-        <v>0.0395</v>
+        <v>3.955</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0068</v>
+        <v>0.6843</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.9605</v>
+        <v>96.045</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0053</v>
+        <v>0.5301</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0131</v>
+        <v>1.3088</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0756</v>
+        <v>7.5649</v>
       </c>
     </row>
   </sheetData>

--- a/삼성전자_2020-2024_재무분석_requests.xlsx
+++ b/삼성전자_2020-2024_재무분석_requests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,11 +529,6 @@
           <t>ROE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>영업이익_ROE</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -599,9 +594,6 @@
       <c r="S2" t="n">
         <v>1.8338</v>
       </c>
-      <c r="T2" t="n">
-        <v>2.4203</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -667,9 +659,6 @@
       <c r="S3" t="n">
         <v>2.0589</v>
       </c>
-      <c r="T3" t="n">
-        <v>3.0193</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -735,9 +724,6 @@
       <c r="S4" t="n">
         <v>3.3899</v>
       </c>
-      <c r="T4" t="n">
-        <v>4.4736</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -803,9 +789,6 @@
       <c r="S5" t="n">
         <v>9.569900000000001</v>
       </c>
-      <c r="T5" t="n">
-        <v>13.0437</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -875,9 +858,6 @@
       <c r="S6" t="n">
         <v>2.6039</v>
       </c>
-      <c r="T6" t="n">
-        <v>3.4211</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -947,9 +927,6 @@
       <c r="S7" t="n">
         <v>3.4126</v>
       </c>
-      <c r="T7" t="n">
-        <v>4.4512</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1019,9 +996,6 @@
       <c r="S8" t="n">
         <v>4.1424</v>
       </c>
-      <c r="T8" t="n">
-        <v>5.33</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1091,9 +1065,6 @@
       <c r="S9" t="n">
         <v>13.0887</v>
       </c>
-      <c r="T9" t="n">
-        <v>16.9347</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1163,9 +1134,6 @@
       <c r="S10" t="n">
         <v>3.5918</v>
       </c>
-      <c r="T10" t="n">
-        <v>4.4789</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1235,9 +1203,6 @@
       <c r="S11" t="n">
         <v>3.3847</v>
       </c>
-      <c r="T11" t="n">
-        <v>4.2991</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1307,9 +1272,6 @@
       <c r="S12" t="n">
         <v>2.7222</v>
       </c>
-      <c r="T12" t="n">
-        <v>3.1464</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1379,9 +1341,6 @@
       <c r="S13" t="n">
         <v>15.6883</v>
       </c>
-      <c r="T13" t="n">
-        <v>12.2274</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1451,9 +1410,6 @@
       <c r="S14" t="n">
         <v>0.4376</v>
       </c>
-      <c r="T14" t="n">
-        <v>0.1779</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1523,9 +1479,6 @@
       <c r="S15" t="n">
         <v>0.4801</v>
       </c>
-      <c r="T15" t="n">
-        <v>0.1862</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1595,9 +1548,6 @@
       <c r="S16" t="n">
         <v>1.606</v>
       </c>
-      <c r="T16" t="n">
-        <v>0.6688</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1667,9 +1617,6 @@
       <c r="S17" t="n">
         <v>4.2585</v>
       </c>
-      <c r="T17" t="n">
-        <v>1.8057</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1739,9 +1686,6 @@
       <c r="S18" t="n">
         <v>1.8162</v>
       </c>
-      <c r="T18" t="n">
-        <v>1.7762</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1811,9 +1755,6 @@
       <c r="S19" t="n">
         <v>2.566</v>
       </c>
-      <c r="T19" t="n">
-        <v>2.7231</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1883,9 +1824,6 @@
       <c r="S20" t="n">
         <v>2.6149</v>
       </c>
-      <c r="T20" t="n">
-        <v>2.3774</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1955,9 +1893,6 @@
       <c r="S21" t="n">
         <v>8.565899999999999</v>
       </c>
-      <c r="T21" t="n">
-        <v>8.136900000000001</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2027,9 +1962,6 @@
       <c r="S22" t="n">
         <v>4.1446</v>
       </c>
-      <c r="T22" t="n">
-        <v>3.162</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2099,9 +2031,6 @@
       <c r="S23" t="n">
         <v>4.1265</v>
       </c>
-      <c r="T23" t="n">
-        <v>3.0519</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2171,9 +2100,6 @@
       <c r="S24" t="n">
         <v>4.1091</v>
       </c>
-      <c r="T24" t="n">
-        <v>2.9458</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2243,9 +2169,6 @@
       <c r="S25" t="n">
         <v>4.0924</v>
       </c>
-      <c r="T25" t="n">
-        <v>2.8433</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2315,9 +2238,6 @@
       <c r="S26" t="n">
         <v>4.0761</v>
       </c>
-      <c r="T26" t="n">
-        <v>2.7443</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2387,9 +2307,6 @@
       <c r="S27" t="n">
         <v>4.0605</v>
       </c>
-      <c r="T27" t="n">
-        <v>2.6487</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2459,9 +2376,6 @@
       <c r="S28" t="n">
         <v>4.0453</v>
       </c>
-      <c r="T28" t="n">
-        <v>2.5562</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2530,9 +2444,6 @@
       </c>
       <c r="S29" t="n">
         <v>4.0307</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.4668</v>
       </c>
     </row>
     <row r="30">
@@ -2599,9 +2510,6 @@
       <c r="S30" t="n">
         <v>6.2489</v>
       </c>
-      <c r="T30" t="n">
-        <v>6.2701</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2667,9 +2575,6 @@
       <c r="S31" t="n">
         <v>0.3776</v>
       </c>
-      <c r="T31" t="n">
-        <v>2.8541</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2735,9 +2640,6 @@
       <c r="S32" t="n">
         <v>3.6531</v>
       </c>
-      <c r="T32" t="n">
-        <v>5.396</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2803,9 +2705,6 @@
       <c r="S33" t="n">
         <v>11.7648</v>
       </c>
-      <c r="T33" t="n">
-        <v>18.2132</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2875,9 +2774,6 @@
       <c r="S34" t="n">
         <v>6.2021</v>
       </c>
-      <c r="T34" t="n">
-        <v>8.045500000000001</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2947,9 +2843,6 @@
       <c r="S35" t="n">
         <v>-1.5612</v>
       </c>
-      <c r="T35" t="n">
-        <v>4.6956</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3019,9 +2912,6 @@
       <c r="S36" t="n">
         <v>2.5436</v>
       </c>
-      <c r="T36" t="n">
-        <v>2.6629</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3091,9 +2981,6 @@
       <c r="S37" t="n">
         <v>7.0404</v>
       </c>
-      <c r="T37" t="n">
-        <v>19.2246</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3163,9 +3050,6 @@
       <c r="S38" t="n">
         <v>6.403</v>
       </c>
-      <c r="T38" t="n">
-        <v>8.5944</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3235,9 +3119,6 @@
       <c r="S39" t="n">
         <v>1.4537</v>
       </c>
-      <c r="T39" t="n">
-        <v>3.4071</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3307,9 +3188,6 @@
       <c r="S40" t="n">
         <v>1.3514</v>
       </c>
-      <c r="T40" t="n">
-        <v>2.9988</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3379,9 +3257,6 @@
       <c r="S41" t="n">
         <v>8.2835</v>
       </c>
-      <c r="T41" t="n">
-        <v>15.7877</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3451,9 +3326,6 @@
       <c r="S42" t="n">
         <v>2.3396</v>
       </c>
-      <c r="T42" t="n">
-        <v>6.4101</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3523,9 +3395,6 @@
       <c r="S43" t="n">
         <v>0.829</v>
       </c>
-      <c r="T43" t="n">
-        <v>3.1502</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3595,9 +3464,6 @@
       <c r="S44" t="n">
         <v>2.0031</v>
       </c>
-      <c r="T44" t="n">
-        <v>4.1142</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3667,9 +3533,6 @@
       <c r="S45" t="n">
         <v>4.8965</v>
       </c>
-      <c r="T45" t="n">
-        <v>15.1034</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3739,9 +3602,6 @@
       <c r="S46" t="n">
         <v>2.3934</v>
       </c>
-      <c r="T46" t="n">
-        <v>5.4597</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3811,9 +3671,6 @@
       <c r="S47" t="n">
         <v>2.4934</v>
       </c>
-      <c r="T47" t="n">
-        <v>4.7381</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3883,9 +3740,6 @@
       <c r="S48" t="n">
         <v>0.3695</v>
       </c>
-      <c r="T48" t="n">
-        <v>3.079</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3955,9 +3809,6 @@
       <c r="S49" t="n">
         <v>2.3456</v>
       </c>
-      <c r="T49" t="n">
-        <v>13.5639</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4027,9 +3878,6 @@
       <c r="S50" t="n">
         <v>2.0012</v>
       </c>
-      <c r="T50" t="n">
-        <v>7.5745</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4099,9 +3947,6 @@
       <c r="S51" t="n">
         <v>1.8922</v>
       </c>
-      <c r="T51" t="n">
-        <v>7.5729</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4171,9 +4016,6 @@
       <c r="S52" t="n">
         <v>1.7868</v>
       </c>
-      <c r="T52" t="n">
-        <v>7.5715</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4243,9 +4085,6 @@
       <c r="S53" t="n">
         <v>1.6849</v>
       </c>
-      <c r="T53" t="n">
-        <v>7.5701</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4315,9 +4154,6 @@
       <c r="S54" t="n">
         <v>1.5863</v>
       </c>
-      <c r="T54" t="n">
-        <v>7.5687</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4387,9 +4223,6 @@
       <c r="S55" t="n">
         <v>1.4909</v>
       </c>
-      <c r="T55" t="n">
-        <v>7.5674</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4459,9 +4292,6 @@
       <c r="S56" t="n">
         <v>1.3984</v>
       </c>
-      <c r="T56" t="n">
-        <v>7.5661</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4530,9 +4360,6 @@
       </c>
       <c r="S57" t="n">
         <v>1.3088</v>
-      </c>
-      <c r="T57" t="n">
-        <v>7.5649</v>
       </c>
     </row>
   </sheetData>

--- a/삼성전자_2020-2024_재무분석_requests.xlsx
+++ b/삼성전자_2020-2024_재무분석_requests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,30 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>당기순이익_성장률</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>영업이익률</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>순이익률</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>영업비용률</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ROA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ROE</t>
         </is>
@@ -579,19 +584,20 @@
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="n">
         <v>11.6535</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>8.829499999999999</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>88.34650000000001</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.3666</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>1.8338</v>
       </c>
     </row>
@@ -644,19 +650,20 @@
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="n">
         <v>15.3802</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>10.488</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>84.6198</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.5519</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>2.0589</v>
       </c>
     </row>
@@ -709,19 +716,20 @@
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="n">
         <v>18.4475</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>13.9787</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>81.55249999999999</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>2.4909</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>3.3899</v>
       </c>
     </row>
@@ -774,19 +782,20 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
         <v>15.1997</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>11.1516</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>84.80029999999999</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>6.9818</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>9.569900000000001</v>
       </c>
     </row>
@@ -844,18 +853,21 @@
         <v>45.5307</v>
       </c>
       <c r="O6" t="n">
+        <v>46.1984</v>
+      </c>
+      <c r="P6" t="n">
         <v>14.3494</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>10.9219</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>85.6506</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>1.818</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>2.6039</v>
       </c>
     </row>
@@ -913,18 +925,21 @@
         <v>54.2634</v>
       </c>
       <c r="O7" t="n">
+        <v>73.4355</v>
+      </c>
+      <c r="P7" t="n">
         <v>19.7368</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>15.1315</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>80.2632</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>2.5039</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>3.4126</v>
       </c>
     </row>
@@ -982,18 +997,21 @@
         <v>28.0436</v>
       </c>
       <c r="O8" t="n">
+        <v>31.3293</v>
+      </c>
+      <c r="P8" t="n">
         <v>21.3811</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>16.6173</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>78.6189</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>2.9953</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>4.1424</v>
       </c>
     </row>
@@ -1051,18 +1069,21 @@
         <v>43.4518</v>
       </c>
       <c r="O9" t="n">
+        <v>51.1198</v>
+      </c>
+      <c r="P9" t="n">
         <v>18.4667</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>14.2728</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>81.5333</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>9.3543</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>13.0887</v>
       </c>
     </row>
@@ -1120,18 +1141,21 @@
         <v>50.5021</v>
       </c>
       <c r="O10" t="n">
+        <v>58.5708</v>
+      </c>
+      <c r="P10" t="n">
         <v>18.1552</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>14.5595</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>81.84480000000001</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>2.5777</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>3.5918</v>
       </c>
     </row>
@@ -1189,18 +1213,21 @@
         <v>12.1774</v>
       </c>
       <c r="O11" t="n">
+        <v>15.1987</v>
+      </c>
+      <c r="P11" t="n">
         <v>18.2596</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>14.376</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>81.74039999999999</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>2.4772</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>3.3847</v>
       </c>
     </row>
@@ -1258,18 +1285,21 @@
         <v>-31.3923</v>
       </c>
       <c r="O12" t="n">
+        <v>-23.6236</v>
+      </c>
+      <c r="P12" t="n">
         <v>14.1336</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>12.2284</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>85.8664</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>1.9965</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>2.7222</v>
       </c>
     </row>
@@ -1327,18 +1357,21 @@
         <v>-15.9919</v>
       </c>
       <c r="O13" t="n">
+        <v>39.4579</v>
+      </c>
+      <c r="P13" t="n">
         <v>14.3521</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>18.4144</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>85.64790000000001</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>12.411</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>15.6883</v>
       </c>
     </row>
@@ -1396,18 +1429,21 @@
         <v>-95.4666</v>
       </c>
       <c r="O14" t="n">
+        <v>-86.0958</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.0043</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>2.4701</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>98.9957</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>0.3468</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>0.4376</v>
       </c>
     </row>
@@ -1465,18 +1501,21 @@
         <v>-95.25749999999999</v>
       </c>
       <c r="O15" t="n">
+        <v>-84.47069999999999</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.1141</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>2.8724</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>98.88590000000001</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>0.3847</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>0.4801</v>
       </c>
     </row>
@@ -1534,18 +1573,21 @@
         <v>-77.5753</v>
       </c>
       <c r="O16" t="n">
+        <v>-37.7564</v>
+      </c>
+      <c r="P16" t="n">
         <v>3.6103</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>8.670299999999999</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>96.3897</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>1.2859</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>1.606</v>
       </c>
     </row>
@@ -1603,18 +1645,21 @@
         <v>-84.86060000000001</v>
       </c>
       <c r="O17" t="n">
+        <v>-72.1726</v>
+      </c>
+      <c r="P17" t="n">
         <v>2.5361</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>5.9811</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>97.4639</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>3.397</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>4.2585</v>
       </c>
     </row>
@@ -1672,18 +1717,21 @@
         <v>931.9019</v>
       </c>
       <c r="O18" t="n">
+        <v>328.9793</v>
+      </c>
+      <c r="P18" t="n">
         <v>9.1858</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>9.3925</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>90.8142</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>1.4344</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>1.8162</v>
       </c>
     </row>
@@ -1741,18 +1789,21 @@
         <v>1462.1756</v>
       </c>
       <c r="O19" t="n">
+        <v>470.9858</v>
+      </c>
+      <c r="P19" t="n">
         <v>14.1003</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>13.2869</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>85.8997</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>2.026</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>2.566</v>
       </c>
     </row>
@@ -1810,18 +1861,21 @@
         <v>277.3677</v>
       </c>
       <c r="O20" t="n">
+        <v>72.8372</v>
+      </c>
+      <c r="P20" t="n">
         <v>11.61</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>12.77</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>88.39</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>2.0559</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>2.6149</v>
       </c>
     </row>
@@ -1879,18 +1933,21 @@
         <v>398.3414</v>
       </c>
       <c r="O21" t="n">
+        <v>122.4519</v>
+      </c>
+      <c r="P21" t="n">
         <v>10.8771</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>11.4505</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>89.1229</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>6.6957</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>8.565899999999999</v>
       </c>
     </row>
@@ -1916,25 +1973,25 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>511228434915789.6</v>
+        <v>506841757432095.2</v>
       </c>
       <c r="F22" t="n">
-        <v>103442552936842.1</v>
+        <v>103128614736212</v>
       </c>
       <c r="G22" t="n">
-        <v>407785881978947.2</v>
+        <v>406271044666363.4</v>
       </c>
       <c r="H22" t="n">
-        <v>157587671584210.5</v>
+        <v>77397974833852.22</v>
       </c>
       <c r="I22" t="n">
-        <v>12894264463157.89</v>
+        <v>18592658865547.71</v>
       </c>
       <c r="J22" t="n">
-        <v>144693407121052.6</v>
+        <v>58805315968304.52</v>
       </c>
       <c r="K22" t="n">
-        <v>16901021673684.21</v>
+        <v>11003611309174.94</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1942,25 +1999,28 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>119.1286</v>
+        <v>7.6233</v>
       </c>
       <c r="N22" t="n">
-        <v>95.18989999999999</v>
+        <v>181.4507</v>
       </c>
       <c r="O22" t="n">
-        <v>8.1823</v>
+        <v>62.9028</v>
       </c>
       <c r="P22" t="n">
-        <v>10.7248</v>
+        <v>24.0222</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.8177</v>
+        <v>14.2169</v>
       </c>
       <c r="R22" t="n">
-        <v>3.306</v>
+        <v>75.9778</v>
       </c>
       <c r="S22" t="n">
-        <v>4.1446</v>
+        <v>2.171</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.7084</v>
       </c>
     </row>
     <row r="23">
@@ -1985,25 +2045,25 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>518654384103007.6</v>
+        <v>522833687902362.1</v>
       </c>
       <c r="F23" t="n">
-        <v>103363439573684.2</v>
+        <v>106511935558213.3</v>
       </c>
       <c r="G23" t="n">
-        <v>415290944529323.2</v>
+        <v>418954089994180.2</v>
       </c>
       <c r="H23" t="n">
-        <v>161144834239849.6</v>
+        <v>79714783641760.38</v>
       </c>
       <c r="I23" t="n">
-        <v>12674397583458.64</v>
+        <v>29394368201344.96</v>
       </c>
       <c r="J23" t="n">
-        <v>148470436656391</v>
+        <v>50320415440415.41</v>
       </c>
       <c r="K23" t="n">
-        <v>17137166861654.14</v>
+        <v>16031830708224.88</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2011,25 +2071,28 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>117.5625</v>
+        <v>7.6233</v>
       </c>
       <c r="N23" t="n">
-        <v>21.3572</v>
+        <v>181.4507</v>
       </c>
       <c r="O23" t="n">
-        <v>7.8652</v>
+        <v>62.9028</v>
       </c>
       <c r="P23" t="n">
-        <v>10.6346</v>
+        <v>36.8744</v>
       </c>
       <c r="Q23" t="n">
-        <v>92.1348</v>
+        <v>20.1115</v>
       </c>
       <c r="R23" t="n">
-        <v>3.3042</v>
+        <v>63.1256</v>
       </c>
       <c r="S23" t="n">
-        <v>4.1265</v>
+        <v>3.0663</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.8266</v>
       </c>
     </row>
     <row r="24">
@@ -2054,25 +2117,25 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>526080333290225.6</v>
+        <v>528806887668767.1</v>
       </c>
       <c r="F24" t="n">
-        <v>103284326210526.3</v>
+        <v>109423899697181.7</v>
       </c>
       <c r="G24" t="n">
-        <v>422796007079699.1</v>
+        <v>421963240510531.8</v>
       </c>
       <c r="H24" t="n">
-        <v>164701996895488.7</v>
+        <v>85128699561693.81</v>
       </c>
       <c r="I24" t="n">
-        <v>12454530703759.39</v>
+        <v>25846662370390.91</v>
       </c>
       <c r="J24" t="n">
-        <v>152247466191729.3</v>
+        <v>59282037191302.9</v>
       </c>
       <c r="K24" t="n">
-        <v>17373312049624.06</v>
+        <v>16454659696213.43</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2080,25 +2143,28 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>108.2233</v>
+        <v>7.6233</v>
       </c>
       <c r="N24" t="n">
-        <v>35.6205</v>
+        <v>181.4507</v>
       </c>
       <c r="O24" t="n">
-        <v>7.5619</v>
+        <v>62.9028</v>
       </c>
       <c r="P24" t="n">
-        <v>10.5483</v>
+        <v>30.3619</v>
       </c>
       <c r="Q24" t="n">
-        <v>92.43810000000001</v>
+        <v>19.3292</v>
       </c>
       <c r="R24" t="n">
-        <v>3.3024</v>
+        <v>69.63809999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>4.1091</v>
+        <v>3.1117</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.8995</v>
       </c>
     </row>
     <row r="25">
@@ -2123,25 +2189,25 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>533506282477443.7</v>
+        <v>553804164141988.3</v>
       </c>
       <c r="F25" t="n">
-        <v>103205212847368.4</v>
+        <v>117044093141640.3</v>
       </c>
       <c r="G25" t="n">
-        <v>430301069630075.1</v>
+        <v>439343663506848.1</v>
       </c>
       <c r="H25" t="n">
-        <v>168259159551127.8</v>
+        <v>323807327684467.2</v>
       </c>
       <c r="I25" t="n">
-        <v>12234663824060.15</v>
+        <v>92107447767664.03</v>
       </c>
       <c r="J25" t="n">
-        <v>156024495727067.7</v>
+        <v>231699879916803.2</v>
       </c>
       <c r="K25" t="n">
-        <v>17609457237593.98</v>
+        <v>56122229929103.59</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2149,25 +2215,28 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-44.076</v>
+        <v>7.6233</v>
       </c>
       <c r="N25" t="n">
-        <v>-62.6148</v>
+        <v>181.4507</v>
       </c>
       <c r="O25" t="n">
-        <v>7.2713</v>
+        <v>62.9028</v>
       </c>
       <c r="P25" t="n">
-        <v>10.4657</v>
+        <v>28.4451</v>
       </c>
       <c r="Q25" t="n">
-        <v>92.7287</v>
+        <v>17.332</v>
       </c>
       <c r="R25" t="n">
-        <v>3.3007</v>
+        <v>71.5549</v>
       </c>
       <c r="S25" t="n">
-        <v>4.0924</v>
+        <v>10.1339</v>
+      </c>
+      <c r="T25" t="n">
+        <v>12.7741</v>
       </c>
     </row>
     <row r="26">
@@ -2192,25 +2261,25 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>540932231664661.8</v>
+        <v>545527011331350.6</v>
       </c>
       <c r="F26" t="n">
-        <v>103126099484210.5</v>
+        <v>107447109643056</v>
       </c>
       <c r="G26" t="n">
-        <v>437806132180451</v>
+        <v>443799424340898.6</v>
       </c>
       <c r="H26" t="n">
-        <v>171816322206766.9</v>
+        <v>83298288898143.56</v>
       </c>
       <c r="I26" t="n">
-        <v>12014796944360.9</v>
+        <v>52329169350303.6</v>
       </c>
       <c r="J26" t="n">
-        <v>159801525262406</v>
+        <v>30969119547839.96</v>
       </c>
       <c r="K26" t="n">
-        <v>17845602425563.91</v>
+        <v>17925195558920.2</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2218,25 +2287,28 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>9.029</v>
+        <v>7.6233</v>
       </c>
       <c r="N26" t="n">
-        <v>-6.8206</v>
+        <v>181.4507</v>
       </c>
       <c r="O26" t="n">
-        <v>6.9928</v>
+        <v>62.9028</v>
       </c>
       <c r="P26" t="n">
-        <v>10.3864</v>
+        <v>62.8214</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.0072</v>
+        <v>21.5193</v>
       </c>
       <c r="R26" t="n">
-        <v>3.299</v>
+        <v>37.1786</v>
       </c>
       <c r="S26" t="n">
-        <v>4.0761</v>
+        <v>3.2858</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4.039</v>
       </c>
     </row>
     <row r="27">
@@ -2261,25 +2333,25 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>548358180851879.8</v>
+        <v>562739543461819.8</v>
       </c>
       <c r="F27" t="n">
-        <v>103046986121052.6</v>
+        <v>110972106504975</v>
       </c>
       <c r="G27" t="n">
-        <v>445311194730826.9</v>
+        <v>457654037632370.1</v>
       </c>
       <c r="H27" t="n">
-        <v>175373484862406</v>
+        <v>85791716017098.22</v>
       </c>
       <c r="I27" t="n">
-        <v>11794930064661.65</v>
+        <v>82730656366939.56</v>
       </c>
       <c r="J27" t="n">
-        <v>163578554797744.3</v>
+        <v>3061059650158.656</v>
       </c>
       <c r="K27" t="n">
-        <v>18081747613533.84</v>
+        <v>26116307868201.18</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2287,25 +2359,28 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>8.829700000000001</v>
+        <v>7.6233</v>
       </c>
       <c r="N27" t="n">
-        <v>-6.9389</v>
+        <v>181.4507</v>
       </c>
       <c r="O27" t="n">
-        <v>6.7256</v>
+        <v>62.9028</v>
       </c>
       <c r="P27" t="n">
-        <v>10.3104</v>
+        <v>96.432</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.2744</v>
+        <v>30.4415</v>
       </c>
       <c r="R27" t="n">
-        <v>3.2974</v>
+        <v>3.568</v>
       </c>
       <c r="S27" t="n">
-        <v>4.0605</v>
+        <v>4.6409</v>
+      </c>
+      <c r="T27" t="n">
+        <v>5.7066</v>
       </c>
     </row>
     <row r="28">
@@ -2330,25 +2405,25 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>555784130039097.8</v>
+        <v>569168654261927.1</v>
       </c>
       <c r="F28" t="n">
-        <v>102967872757894.7</v>
+        <v>114006008695135.2</v>
       </c>
       <c r="G28" t="n">
-        <v>452816257281202.9</v>
+        <v>460941151701768.4</v>
       </c>
       <c r="H28" t="n">
-        <v>178930647518045.1</v>
+        <v>91618353385026.22</v>
       </c>
       <c r="I28" t="n">
-        <v>11575063184962.4</v>
+        <v>72745613314433.41</v>
       </c>
       <c r="J28" t="n">
-        <v>167355584333082.7</v>
+        <v>18872740070592.81</v>
       </c>
       <c r="K28" t="n">
-        <v>18317892801503.76</v>
+        <v>26805108306958.53</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2356,25 +2431,28 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>8.638999999999999</v>
+        <v>7.6233</v>
       </c>
       <c r="N28" t="n">
-        <v>-7.0614</v>
+        <v>181.4507</v>
       </c>
       <c r="O28" t="n">
-        <v>6.469</v>
+        <v>62.9028</v>
       </c>
       <c r="P28" t="n">
-        <v>10.2374</v>
+        <v>79.4007</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.53100000000001</v>
+        <v>29.2574</v>
       </c>
       <c r="R28" t="n">
-        <v>3.2959</v>
+        <v>20.5993</v>
       </c>
       <c r="S28" t="n">
-        <v>4.0453</v>
+        <v>4.7095</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5.8153</v>
       </c>
     </row>
     <row r="29">
@@ -2399,25 +2477,25 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>563210079226315.9</v>
+        <v>596073875321355.9</v>
       </c>
       <c r="F29" t="n">
-        <v>102888759394736.8</v>
+        <v>121945296570012</v>
       </c>
       <c r="G29" t="n">
-        <v>460321319831578.8</v>
+        <v>479927052424525.8</v>
       </c>
       <c r="H29" t="n">
-        <v>182487810173684.2</v>
+        <v>348492274981326.1</v>
       </c>
       <c r="I29" t="n">
-        <v>11355196305263.15</v>
+        <v>259237060579304.5</v>
       </c>
       <c r="J29" t="n">
-        <v>171132613868421</v>
+        <v>89255214402021.59</v>
       </c>
       <c r="K29" t="n">
-        <v>18554037989473.69</v>
+        <v>91424707617857.17</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2425,25 +2503,28 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>8.4564</v>
+        <v>7.6233</v>
       </c>
       <c r="N29" t="n">
-        <v>-7.1883</v>
+        <v>181.4507</v>
       </c>
       <c r="O29" t="n">
-        <v>6.2224</v>
+        <v>62.9028</v>
       </c>
       <c r="P29" t="n">
-        <v>10.1673</v>
+        <v>74.3882</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.77760000000001</v>
+        <v>26.2344</v>
       </c>
       <c r="R29" t="n">
-        <v>3.2943</v>
+        <v>25.6118</v>
       </c>
       <c r="S29" t="n">
-        <v>4.0307</v>
+        <v>15.3378</v>
+      </c>
+      <c r="T29" t="n">
+        <v>19.0497</v>
       </c>
     </row>
     <row r="30">
@@ -2495,19 +2576,20 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="n">
         <v>7.4037</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>7.3788</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>92.5963</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>2.3847</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>6.2489</v>
       </c>
     </row>
@@ -2560,19 +2642,20 @@
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="n">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="n">
         <v>3.8604</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>0.5108</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>96.1396</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>0.1464</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>0.3776</v>
       </c>
     </row>
@@ -2625,19 +2708,20 @@
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="n">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="n">
         <v>5.6679</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>3.8371</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>94.3321</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>1.3143</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>3.6531</v>
       </c>
     </row>
@@ -2690,19 +2774,20 @@
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="n">
         <v>5.0504</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>3.2623</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>94.9496</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>4.2813</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>11.7648</v>
       </c>
     </row>
@@ -2760,18 +2845,21 @@
         <v>39.0903</v>
       </c>
       <c r="O34" t="n">
+        <v>7.5837</v>
+      </c>
+      <c r="P34" t="n">
         <v>8.0632</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>6.2157</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>91.93680000000001</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>2.317</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>6.2021</v>
       </c>
     </row>
@@ -2829,18 +2917,21 @@
         <v>77.24679999999999</v>
       </c>
       <c r="O35" t="n">
+        <v>-545.4081</v>
+      </c>
+      <c r="P35" t="n">
         <v>5.1312</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>-1.706</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>94.86879999999999</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>-0.5762</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>-1.5612</v>
       </c>
     </row>
@@ -2898,18 +2989,21 @@
         <v>-43.6173</v>
       </c>
       <c r="O36" t="n">
+        <v>-20.4471</v>
+      </c>
+      <c r="P36" t="n">
         <v>2.8781</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>2.7492</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>97.1219</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>0.9466</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>2.5436</v>
       </c>
     </row>
@@ -2967,18 +3061,21 @@
         <v>20.9324</v>
       </c>
       <c r="O37" t="n">
+        <v>-31.4382</v>
+      </c>
+      <c r="P37" t="n">
         <v>5.1709</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>1.8937</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>94.8291</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>2.6457</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>7.0404</v>
       </c>
     </row>
@@ -3036,18 +3133,21 @@
         <v>23.9895</v>
       </c>
       <c r="O38" t="n">
+        <v>19.8312</v>
+      </c>
+      <c r="P38" t="n">
         <v>8.907400000000001</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>6.6362</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>91.0926</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>2.5449</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>6.403</v>
       </c>
     </row>
@@ -3105,18 +3205,21 @@
         <v>-9.7811</v>
       </c>
       <c r="O39" t="n">
+        <v>-215.7783</v>
+      </c>
+      <c r="P39" t="n">
         <v>4.0703</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>1.7367</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>95.9297</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>0.6105</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>1.4537</v>
       </c>
     </row>
@@ -3174,18 +3277,21 @@
         <v>38.0726</v>
       </c>
       <c r="O40" t="n">
+        <v>-34.8604</v>
+      </c>
+      <c r="P40" t="n">
         <v>3.5254</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>1.5887</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>96.4746</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>0.5488</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>1.3514</v>
       </c>
     </row>
@@ -3243,18 +3349,21 @@
         <v>-8.095800000000001</v>
       </c>
       <c r="O41" t="n">
+        <v>31.6721</v>
+      </c>
+      <c r="P41" t="n">
         <v>4.2543</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>2.2322</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>95.7457</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>3.3779</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>8.2835</v>
       </c>
     </row>
@@ -3312,18 +3421,21 @@
         <v>-20.3721</v>
       </c>
       <c r="O42" t="n">
+        <v>-60.9901</v>
+      </c>
+      <c r="P42" t="n">
         <v>7.3344</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>2.677</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>92.6656</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>0.9506</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>2.3396</v>
       </c>
     </row>
@@ -3381,18 +3493,21 @@
         <v>-6.3536</v>
       </c>
       <c r="O43" t="n">
+        <v>-42.238</v>
+      </c>
+      <c r="P43" t="n">
         <v>3.7099</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>0.9762999999999999</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>96.2901</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>0.3357</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>0.829</v>
       </c>
     </row>
@@ -3450,18 +3565,21 @@
         <v>33.5009</v>
       </c>
       <c r="O44" t="n">
+        <v>44.2382</v>
+      </c>
+      <c r="P44" t="n">
         <v>4.8126</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>2.3432</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>95.1874</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>0.7839</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>2.0031</v>
       </c>
     </row>
@@ -3519,18 +3637,21 @@
         <v>-0.0535</v>
       </c>
       <c r="O45" t="n">
+        <v>-38.2429</v>
+      </c>
+      <c r="P45" t="n">
         <v>4.2137</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>1.3661</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>95.7863</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>1.91</v>
       </c>
-      <c r="S45" t="n">
+      <c r="T45" t="n">
         <v>4.8965</v>
       </c>
     </row>
@@ -3588,18 +3709,21 @@
         <v>-10.8173</v>
       </c>
       <c r="O46" t="n">
+        <v>7.1151</v>
+      </c>
+      <c r="P46" t="n">
         <v>6.3302</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>2.775</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>93.6698</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>0.954</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>2.3934</v>
       </c>
     </row>
@@ -3657,18 +3781,21 @@
         <v>61.2237</v>
       </c>
       <c r="O47" t="n">
+        <v>222.3852</v>
+      </c>
+      <c r="P47" t="n">
         <v>5.5136</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>2.9015</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>94.4864</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>0.9972</v>
       </c>
-      <c r="S47" t="n">
+      <c r="T47" t="n">
         <v>2.4934</v>
       </c>
     </row>
@@ -3726,18 +3853,21 @@
         <v>-24.56</v>
       </c>
       <c r="O48" t="n">
+        <v>-81.4051</v>
+      </c>
+      <c r="P48" t="n">
         <v>3.3905</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>0.4069</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>96.6095</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>0.1403</v>
       </c>
-      <c r="S48" t="n">
+      <c r="T48" t="n">
         <v>0.3695</v>
       </c>
     </row>
@@ -3795,18 +3925,21 @@
         <v>-3.646</v>
       </c>
       <c r="O49" t="n">
+        <v>-48.6043</v>
+      </c>
+      <c r="P49" t="n">
         <v>3.898</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>0.6741</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>96.102</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>0.9011</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>2.3456</v>
       </c>
     </row>
@@ -3832,25 +3965,25 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>66475180763157.86</v>
+        <v>66236039583771</v>
       </c>
       <c r="F50" t="n">
-        <v>39902281342105.27</v>
+        <v>39574249299813.1</v>
       </c>
       <c r="G50" t="n">
-        <v>26572899421052.63</v>
+        <v>26747896915829.58</v>
       </c>
       <c r="H50" t="n">
-        <v>47814044005263.17</v>
+        <v>23229498785101.64</v>
       </c>
       <c r="I50" t="n">
-        <v>2012751105263.158</v>
+        <v>1474593672303.841</v>
       </c>
       <c r="J50" t="n">
-        <v>45801292900000.02</v>
+        <v>21754905112797.8</v>
       </c>
       <c r="K50" t="n">
-        <v>531787589473.6838</v>
+        <v>297615111341.355</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3858,25 +3991,28 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>126.6504</v>
+        <v>10.1136</v>
       </c>
       <c r="N50" t="n">
-        <v>50.7215</v>
+        <v>10.4225</v>
       </c>
       <c r="O50" t="n">
-        <v>4.2095</v>
+        <v>-49.1617</v>
       </c>
       <c r="P50" t="n">
-        <v>1.1122</v>
+        <v>6.3479</v>
       </c>
       <c r="Q50" t="n">
-        <v>95.79049999999999</v>
+        <v>1.2812</v>
       </c>
       <c r="R50" t="n">
-        <v>0.8</v>
+        <v>93.6521</v>
       </c>
       <c r="S50" t="n">
-        <v>2.0012</v>
+        <v>0.4493</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.1127</v>
       </c>
     </row>
     <row r="51">
@@ -3901,25 +4037,25 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>67490811712030.05</v>
+        <v>68135514367282.33</v>
       </c>
       <c r="F51" t="n">
-        <v>40456257727067.68</v>
+        <v>40618491614755.73</v>
       </c>
       <c r="G51" t="n">
-        <v>27034553984962.4</v>
+        <v>27607397956494.84</v>
       </c>
       <c r="H51" t="n">
-        <v>49127568624812.05</v>
+        <v>23888436999944.89</v>
       </c>
       <c r="I51" t="n">
-        <v>2047310781954.887</v>
+        <v>1320813833906.978</v>
       </c>
       <c r="J51" t="n">
-        <v>47080257842857.16</v>
+        <v>22567623166037.91</v>
       </c>
       <c r="K51" t="n">
-        <v>511545207518.7966</v>
+        <v>320011930230.7641</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3927,25 +4063,28 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>126.4531</v>
+        <v>10.1136</v>
       </c>
       <c r="N51" t="n">
-        <v>71.1589</v>
+        <v>10.4225</v>
       </c>
       <c r="O51" t="n">
-        <v>4.1673</v>
+        <v>-49.1617</v>
       </c>
       <c r="P51" t="n">
-        <v>1.0413</v>
+        <v>5.5291</v>
       </c>
       <c r="Q51" t="n">
-        <v>95.8327</v>
+        <v>1.3396</v>
       </c>
       <c r="R51" t="n">
-        <v>0.7579</v>
+        <v>94.4709</v>
       </c>
       <c r="S51" t="n">
-        <v>1.8922</v>
+        <v>0.4697</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.1592</v>
       </c>
     </row>
     <row r="52">
@@ -3970,25 +4109,25 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>68506442660902.22</v>
+        <v>69426418679706.27</v>
       </c>
       <c r="F52" t="n">
-        <v>41010234112030.09</v>
+        <v>42786677603394.33</v>
       </c>
       <c r="G52" t="n">
-        <v>27496208548872.18</v>
+        <v>26704065822788.54</v>
       </c>
       <c r="H52" t="n">
-        <v>50441093244360.91</v>
+        <v>24419188725426.13</v>
       </c>
       <c r="I52" t="n">
-        <v>2081870458646.616</v>
+        <v>830244389429.0314</v>
       </c>
       <c r="J52" t="n">
-        <v>48359222785714.3</v>
+        <v>23588944335997.1</v>
       </c>
       <c r="K52" t="n">
-        <v>491302825563.9093</v>
+        <v>45873443551.6272</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3996,25 +4135,28 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>127.4542</v>
+        <v>10.1136</v>
       </c>
       <c r="N52" t="n">
-        <v>176.8887</v>
+        <v>10.4225</v>
       </c>
       <c r="O52" t="n">
-        <v>4.1273</v>
+        <v>-49.1617</v>
       </c>
       <c r="P52" t="n">
-        <v>0.974</v>
+        <v>3.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>95.87269999999999</v>
+        <v>0.1879</v>
       </c>
       <c r="R52" t="n">
-        <v>0.7171999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="S52" t="n">
-        <v>1.7868</v>
+        <v>0.06610000000000001</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.1718</v>
       </c>
     </row>
     <row r="53">
@@ -4039,25 +4181,25 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>69522073609774.4</v>
+        <v>70837864686980.34</v>
       </c>
       <c r="F53" t="n">
-        <v>41564210496992.49</v>
+        <v>43339255747963.95</v>
       </c>
       <c r="G53" t="n">
-        <v>27957863112781.95</v>
+        <v>27570539420257.02</v>
       </c>
       <c r="H53" t="n">
-        <v>51754617863909.78</v>
+        <v>96600617359672.98</v>
       </c>
       <c r="I53" t="n">
-        <v>2116430135338.346</v>
+        <v>3776089246183.863</v>
       </c>
       <c r="J53" t="n">
-        <v>49638187728571.44</v>
+        <v>92824528113489.12</v>
       </c>
       <c r="K53" t="n">
-        <v>471060443609.0221</v>
+        <v>300639990977.9907</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -4065,25 +4207,28 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-41.0057</v>
+        <v>10.1136</v>
       </c>
       <c r="N53" t="n">
-        <v>-38.1102</v>
+        <v>10.4225</v>
       </c>
       <c r="O53" t="n">
-        <v>4.0894</v>
+        <v>-49.1617</v>
       </c>
       <c r="P53" t="n">
-        <v>0.9102</v>
+        <v>3.909</v>
       </c>
       <c r="Q53" t="n">
-        <v>95.9106</v>
+        <v>0.3112</v>
       </c>
       <c r="R53" t="n">
-        <v>0.6776</v>
+        <v>96.09099999999999</v>
       </c>
       <c r="S53" t="n">
-        <v>1.6849</v>
+        <v>0.4244</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.0904</v>
       </c>
     </row>
     <row r="54">
@@ -4108,25 +4253,25 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>70537704558646.58</v>
+        <v>71492442371331.08</v>
       </c>
       <c r="F54" t="n">
-        <v>42118186881954.89</v>
+        <v>42434600772758.21</v>
       </c>
       <c r="G54" t="n">
-        <v>28419517676691.73</v>
+        <v>29250506683210.22</v>
       </c>
       <c r="H54" t="n">
-        <v>53068142483458.66</v>
+        <v>25578826238489.62</v>
       </c>
       <c r="I54" t="n">
-        <v>2150989812030.075</v>
+        <v>1628282602433.654</v>
       </c>
       <c r="J54" t="n">
-        <v>50917152671428.58</v>
+        <v>23950543636055.96</v>
       </c>
       <c r="K54" t="n">
-        <v>450818061654.1348</v>
+        <v>151302502496.0535</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -4134,25 +4279,28 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>10.9886</v>
+        <v>10.1136</v>
       </c>
       <c r="N54" t="n">
-        <v>6.8681</v>
+        <v>10.4225</v>
       </c>
       <c r="O54" t="n">
-        <v>4.0533</v>
+        <v>-49.1617</v>
       </c>
       <c r="P54" t="n">
-        <v>0.8495</v>
+        <v>6.3657</v>
       </c>
       <c r="Q54" t="n">
-        <v>95.94670000000001</v>
+        <v>0.5915</v>
       </c>
       <c r="R54" t="n">
-        <v>0.6391</v>
+        <v>93.6343</v>
       </c>
       <c r="S54" t="n">
-        <v>1.5863</v>
+        <v>0.2116</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.5173</v>
       </c>
     </row>
     <row r="55">
@@ -4177,25 +4325,25 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>71553335507518.75</v>
+        <v>73542656912377.59</v>
       </c>
       <c r="F55" t="n">
-        <v>42672163266917.3</v>
+        <v>43554318936175.67</v>
       </c>
       <c r="G55" t="n">
-        <v>28881172240601.5</v>
+        <v>30190425100471.91</v>
       </c>
       <c r="H55" t="n">
-        <v>54381667103007.53</v>
+        <v>26304406512747.88</v>
       </c>
       <c r="I55" t="n">
-        <v>2185549488721.804</v>
+        <v>1458475122468.368</v>
       </c>
       <c r="J55" t="n">
-        <v>52196117614285.73</v>
+        <v>24845931390279.51</v>
       </c>
       <c r="K55" t="n">
-        <v>430575679699.2476</v>
+        <v>162688667434.5393</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -4203,25 +4351,28 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>10.6948</v>
+        <v>10.1136</v>
       </c>
       <c r="N55" t="n">
-        <v>6.7522</v>
+        <v>10.4225</v>
       </c>
       <c r="O55" t="n">
-        <v>4.0189</v>
+        <v>-49.1617</v>
       </c>
       <c r="P55" t="n">
-        <v>0.7917999999999999</v>
+        <v>5.5446</v>
       </c>
       <c r="Q55" t="n">
-        <v>95.9811</v>
+        <v>0.6185</v>
       </c>
       <c r="R55" t="n">
-        <v>0.6018</v>
+        <v>94.4554</v>
       </c>
       <c r="S55" t="n">
-        <v>1.4909</v>
+        <v>0.2212</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.5389</v>
       </c>
     </row>
     <row r="56">
@@ -4246,25 +4397,25 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>72568966456390.94</v>
+        <v>74936005650358.06</v>
       </c>
       <c r="F56" t="n">
-        <v>43226139651879.7</v>
+        <v>45879217284390.23</v>
       </c>
       <c r="G56" t="n">
-        <v>29342826804511.27</v>
+        <v>29202574627693.34</v>
       </c>
       <c r="H56" t="n">
-        <v>55695191722556.41</v>
+        <v>26888836090305.96</v>
       </c>
       <c r="I56" t="n">
-        <v>2220109165413.534</v>
+        <v>916776275706.7419</v>
       </c>
       <c r="J56" t="n">
-        <v>53475082557142.88</v>
+        <v>25972059814599.22</v>
       </c>
       <c r="K56" t="n">
-        <v>410333297744.3604</v>
+        <v>23321284917.9281</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -4272,25 +4423,28 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>10.4163</v>
+        <v>10.1136</v>
       </c>
       <c r="N56" t="n">
-        <v>6.6401</v>
+        <v>10.4225</v>
       </c>
       <c r="O56" t="n">
-        <v>3.9862</v>
+        <v>-49.1617</v>
       </c>
       <c r="P56" t="n">
-        <v>0.7367</v>
+        <v>3.4095</v>
       </c>
       <c r="Q56" t="n">
-        <v>96.0138</v>
+        <v>0.0867</v>
       </c>
       <c r="R56" t="n">
-        <v>0.5654</v>
+        <v>96.59050000000001</v>
       </c>
       <c r="S56" t="n">
-        <v>1.3984</v>
+        <v>0.0311</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.0799</v>
       </c>
     </row>
     <row r="57">
@@ -4315,25 +4469,25 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>73584597405263.11</v>
+        <v>76459462109551.48</v>
       </c>
       <c r="F57" t="n">
-        <v>43780116036842.11</v>
+        <v>46471734726298.45</v>
       </c>
       <c r="G57" t="n">
-        <v>29804481368421.05</v>
+        <v>30150117974122.86</v>
       </c>
       <c r="H57" t="n">
-        <v>57008716342105.28</v>
+        <v>106370371088619.5</v>
       </c>
       <c r="I57" t="n">
-        <v>2254668842105.263</v>
+        <v>4169650623274.263</v>
       </c>
       <c r="J57" t="n">
-        <v>54754047500000.02</v>
+        <v>102200720465345.3</v>
       </c>
       <c r="K57" t="n">
-        <v>390090915789.4731</v>
+        <v>152840300280.2776</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -4341,25 +4495,28 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>10.1519</v>
+        <v>10.1136</v>
       </c>
       <c r="N57" t="n">
-        <v>6.5317</v>
+        <v>10.4225</v>
       </c>
       <c r="O57" t="n">
-        <v>3.955</v>
+        <v>-49.1617</v>
       </c>
       <c r="P57" t="n">
-        <v>0.6843</v>
+        <v>3.9199</v>
       </c>
       <c r="Q57" t="n">
-        <v>96.045</v>
+        <v>0.1437</v>
       </c>
       <c r="R57" t="n">
-        <v>0.5301</v>
+        <v>96.0801</v>
       </c>
       <c r="S57" t="n">
-        <v>1.3088</v>
+        <v>0.1999</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.5069</v>
       </c>
     </row>
   </sheetData>

--- a/삼성전자_2020-2024_재무분석_requests.xlsx
+++ b/삼성전자_2020-2024_재무분석_requests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,80 +456,90 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>업종코드</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>업종명</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>자산총계</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>부채총계</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>자본총계</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>매출액</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>영업이익</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>영업비용</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>당기순이익</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>수익성 상태</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>매출액_성장률</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>영업이익_성장률</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>당기순이익_성장률</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>영업이익률</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>순이익률</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>영업비용률</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>ROA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ROE</t>
         </is>
@@ -556,48 +566,58 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>357457535000000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>91069812000000</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>266387723000000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>55325178000000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>6447345000000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>48877833000000</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>4884926000000</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
         <v>11.6535</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>8.829499999999999</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>88.34650000000001</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1.3666</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>1.8338</v>
       </c>
     </row>
@@ -622,48 +642,58 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>357959499000000</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>88151682000000</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>269807817000000</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>52966142000000</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>8146292000000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>44819850000000</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>5555083000000</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
         <v>15.3802</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>10.488</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>84.6198</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>1.5519</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>2.0589</v>
       </c>
     </row>
@@ -688,48 +718,58 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>375788742000000</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>99652554000000</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>276136188000000</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>66964160000000</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>12353238000000</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>54610922000000</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>9360693000000</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
         <v>18.4475</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>13.9787</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>81.55249999999999</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>2.4909</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>3.3899</v>
       </c>
     </row>
@@ -754,48 +794,58 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>378235718000000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>102287702000000</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>275948016000000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>236806988000000</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>35993876000000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>200813112000000</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>26407832000000</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
         <v>15.1997</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>11.1516</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>84.80029999999999</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>6.9818</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>9.569900000000001</v>
       </c>
     </row>
@@ -820,54 +870,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>392826274000000</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>118557683000000</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>274268591000000</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>65388503000000</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>9382868000000</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>56005635000000</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>7141685000000</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
         <v>18.1894</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>45.5307</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>46.1984</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>14.3494</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>10.9219</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>85.6506</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>1.818</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>2.6039</v>
       </c>
     </row>
@@ -892,54 +952,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>384777669000000</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>102453403000000</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>282324266000000</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>63671585000000</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>12566745000000</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>51104840000000</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>9634486000000</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
         <v>20.2119</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>54.2634</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>73.4355</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>19.7368</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>15.1315</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>80.2632</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>2.5039</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>3.4126</v>
       </c>
     </row>
@@ -964,54 +1034,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>410420718000000</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>113654600000000</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>296766118000000</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>73979187000000</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>15817531000000</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>58161656000000</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>12293331000000</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>10.4758</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>28.0436</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>31.3293</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>21.3811</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>16.6173</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>78.6189</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>2.9953</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>4.1424</v>
       </c>
     </row>
@@ -1036,54 +1116,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>426621158000000</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>121721227000000</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>304899931000000</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>279604799000000</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>51633856000000</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>227970943000000</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>39907450000000</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
         <v>18.0729</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>43.4518</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>51.1198</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>18.4667</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>14.2728</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>81.5333</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>9.3543</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>13.0887</v>
       </c>
     </row>
@@ -1108,54 +1198,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>439326959000000</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>124036040000000</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>315290919000000</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>77781498000000</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>14121409000000</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>63660089000000</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>11324628000000</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
         <v>18.9529</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>50.5021</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>58.5708</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>18.1552</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>14.5595</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>81.84480000000001</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>2.5777</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>3.5918</v>
       </c>
     </row>
@@ -1180,54 +1280,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>448040650000000</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>120133986000000</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>327906664000000</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>77203607000000</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>14097045000000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>63106562000000</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>11098805000000</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
         <v>21.2528</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>12.1774</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>15.1987</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>18.2596</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>14.376</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>81.74039999999999</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>2.4772</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>3.3847</v>
       </c>
     </row>
@@ -1252,54 +1362,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>470278409000000</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>125371520000000</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>344906889000000</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>76781680000000</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>10852045000000</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>65929635000000</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>9389198000000</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
         <v>3.7882</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>-31.3923</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>-23.6236</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>14.1336</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>12.2284</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>85.8664</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>1.9965</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>2.7222</v>
       </c>
     </row>
@@ -1324,54 +1444,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>448424507000000</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>93674903000000</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>354749604000000</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>302231360000000</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>43376630000000</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>258854730000000</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>55654077000000</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
         <v>8.0923</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>-15.9919</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>39.4579</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>14.3521</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>18.4144</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>85.64790000000001</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>12.411</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>15.6883</v>
       </c>
     </row>
@@ -1396,54 +1526,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>454091777000000</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>94292361000000</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>359799416000000</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>63745371000000</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>640178000000</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>63105193000000</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1574600000000</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>-18.0456</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>-95.4666</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>-86.0958</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>1.0043</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>2.4701</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>98.9957</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>0.3468</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>0.4376</v>
       </c>
     </row>
@@ -1468,54 +1608,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>448000552000000</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>89024926000000</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>358975626000000</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>60005533000000</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>668547000000</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>59336986000000</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1723571000000</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
         <v>-22.2763</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>-95.25749999999999</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>-84.47069999999999</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
         <v>1.1141</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>2.8724</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>98.88590000000001</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>0.3847</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>0.4801</v>
       </c>
     </row>
@@ -1540,54 +1690,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>454466447000000</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>90573804000000</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>363892643000000</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>67404652000000</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>2433534000000</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>64971118000000</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>5844171000000</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
         <v>-12.2126</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>-77.5753</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>-37.7564</v>
       </c>
-      <c r="P16" t="n">
+      <c r="R16" t="n">
         <v>3.6103</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>8.670299999999999</v>
       </c>
-      <c r="R16" t="n">
+      <c r="T16" t="n">
         <v>96.3897</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>1.2859</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>1.606</v>
       </c>
     </row>
@@ -1612,54 +1772,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>455905980000000</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>92228115000000</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>363677865000000</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>258935494000000</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>6566976000000</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>252368518000000</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>15487100000000</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
         <v>-14.3254</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>-84.86060000000001</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>-72.1726</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R17" t="n">
         <v>2.5361</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>5.9811</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>97.4639</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>3.397</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>4.2585</v>
       </c>
     </row>
@@ -1684,54 +1854,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>470899812000000</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>98983688000000</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>371916124000000</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>71915601000000</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>6606009000000</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>65309592000000</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>6754708000000</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
         <v>12.817</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>931.9019</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>328.9793</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>9.1858</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>9.3925</v>
       </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
         <v>90.8142</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>1.4344</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>1.8162</v>
       </c>
     </row>
@@ -1756,54 +1936,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>485757698000000</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>102231027000000</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>383526671000000</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>74068302000000</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>10443878000000</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>63624424000000</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>9841345000000</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
         <v>23.4358</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>1462.1756</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>470.9858</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
         <v>14.1003</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>13.2869</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>85.8997</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>2.026</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>2.566</v>
       </c>
     </row>
@@ -1828,54 +2018,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>491307317000000</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>105025954000000</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>386281363000000</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>79098731000000</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>9183371000000</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>69915360000000</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>10100904000000</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
         <v>17.3491</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>277.3677</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>72.8372</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>11.61</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>12.77</v>
       </c>
-      <c r="R20" t="n">
+      <c r="T20" t="n">
         <v>88.39</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>2.0559</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>2.6149</v>
       </c>
     </row>
@@ -1900,54 +2100,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>514531948000000</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>112339878000000</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>402192070000000</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>300870903000000</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>32725961000000</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>268144942000000</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>34451351000000</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
         <v>16.1953</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>398.3414</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>122.4519</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>10.8771</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>11.4505</v>
       </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
         <v>89.1229</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>6.6957</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>8.565899999999999</v>
       </c>
     </row>
@@ -1972,54 +2182,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>506841757432095.2</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>103128614736212</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>406271044666363.4</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>77397974833852.22</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>18592658865547.71</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>58805315968304.52</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>11003611309174.94</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
         <v>7.6233</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
         <v>181.4507</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>62.9028</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
         <v>24.0222</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>14.2169</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
         <v>75.9778</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>2.171</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>2.7084</v>
       </c>
     </row>
@@ -2044,54 +2264,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>522833687902362.1</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>106511935558213.3</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>418954089994180.2</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>79714783641760.38</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>29394368201344.96</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>50320415440415.41</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>16031830708224.88</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
         <v>7.6233</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>181.4507</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>62.9028</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>36.8744</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>20.1115</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>63.1256</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>3.0663</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>3.8266</v>
       </c>
     </row>
@@ -2116,54 +2346,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>528806887668767.1</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>109423899697181.7</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>421963240510531.8</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>85128699561693.81</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>25846662370390.91</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>59282037191302.9</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>16454659696213.43</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
         <v>7.6233</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>181.4507</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>62.9028</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
         <v>30.3619</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>19.3292</v>
       </c>
-      <c r="R24" t="n">
+      <c r="T24" t="n">
         <v>69.63809999999999</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>3.1117</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>3.8995</v>
       </c>
     </row>
@@ -2188,54 +2428,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>553804164141988.3</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>117044093141640.3</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>439343663506848.1</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>323807327684467.2</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>92107447767664.03</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>231699879916803.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>56122229929103.59</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
         <v>7.6233</v>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
         <v>181.4507</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>62.9028</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
         <v>28.4451</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>17.332</v>
       </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
         <v>71.5549</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>10.1339</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>12.7741</v>
       </c>
     </row>
@@ -2260,54 +2510,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>545527011331350.6</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>107447109643056</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>443799424340898.6</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>83298288898143.56</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>52329169350303.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>30969119547839.96</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>17925195558920.2</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
         <v>7.6233</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>181.4507</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>62.9028</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>62.8214</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>21.5193</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>37.1786</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>3.2858</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>4.039</v>
       </c>
     </row>
@@ -2332,54 +2592,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>562739543461819.8</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>110972106504975</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>457654037632370.1</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>85791716017098.22</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>82730656366939.56</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>3061059650158.656</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>26116307868201.18</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
         <v>7.6233</v>
       </c>
-      <c r="N27" t="n">
+      <c r="P27" t="n">
         <v>181.4507</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>62.9028</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
         <v>96.432</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>30.4415</v>
       </c>
-      <c r="R27" t="n">
+      <c r="T27" t="n">
         <v>3.568</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>4.6409</v>
       </c>
-      <c r="T27" t="n">
+      <c r="V27" t="n">
         <v>5.7066</v>
       </c>
     </row>
@@ -2404,54 +2674,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>569168654261927.1</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>114006008695135.2</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>460941151701768.4</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>91618353385026.22</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>72745613314433.41</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>18872740070592.81</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>26805108306958.53</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
         <v>7.6233</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>181.4507</v>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>62.9028</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
         <v>79.4007</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>29.2574</v>
       </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
         <v>20.5993</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>4.7095</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>5.8153</v>
       </c>
     </row>
@@ -2476,54 +2756,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>596073875321355.9</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>121945296570012</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>479927052424525.8</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>348492274981326.1</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>259237060579304.5</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>89255214402021.59</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>91424707617857.17</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
         <v>7.6233</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>181.4507</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>62.9028</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
         <v>74.3882</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>26.2344</v>
       </c>
-      <c r="R29" t="n">
+      <c r="T29" t="n">
         <v>25.6118</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>15.3378</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
         <v>19.0497</v>
       </c>
     </row>
@@ -2548,48 +2838,58 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>45570152000000</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>28179481000000</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>17390671000000</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>14727803000000</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>1090404000000</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>13637399000000</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1086731000000</v>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
         <v>7.4037</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>7.3788</v>
       </c>
-      <c r="R30" t="n">
+      <c r="T30" t="n">
         <v>92.5963</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>2.3847</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>6.2489</v>
       </c>
     </row>
@@ -2614,48 +2914,58 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>44770155000000</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>27411364000000</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>17358791000000</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>12833827000000</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>495437000000</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>12338390000000</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>65550000000</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
         <v>3.8604</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>0.5108</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T31" t="n">
         <v>96.1396</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>0.1464</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V31" t="n">
         <v>0.3776</v>
       </c>
     </row>
@@ -2680,48 +2990,58 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>49395983000000</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>31623989000000</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>17771994000000</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>16919559000000</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>958981000000</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>15960578000000</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>649225000000</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="n">
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="n">
         <v>5.6679</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
         <v>3.8371</v>
       </c>
-      <c r="R32" t="n">
+      <c r="T32" t="n">
         <v>94.3321</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>1.3143</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
         <v>3.6531</v>
       </c>
     </row>
@@ -2746,48 +3066,58 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>48204227000000</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>30662102000000</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>17542125000000</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>63262046000000</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>3194987000000</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>60067059000000</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>2063790000000</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="n">
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="n">
         <v>5.0504</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>3.2623</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T33" t="n">
         <v>94.9496</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>4.2813</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>11.7648</v>
       </c>
     </row>
@@ -2812,54 +3142,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>50458634000000</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>31607835000000</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>18850799000000</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>18809481000000</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>1516646000000</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>17292835000000</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>1169145000000</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
         <v>27.7141</v>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>39.0903</v>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>7.5837</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
         <v>8.0632</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="S34" t="n">
         <v>6.2157</v>
       </c>
-      <c r="R34" t="n">
+      <c r="T34" t="n">
         <v>91.93680000000001</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>2.317</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>6.2021</v>
       </c>
     </row>
@@ -2884,54 +3224,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>50666883000000</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>31965236000000</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>18701647000000</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>17113898000000</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>878146000000</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>16235752000000</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-291965000000</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>적자</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>33.3499</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>77.24679999999999</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>-545.4081</v>
       </c>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
         <v>5.1312</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>-1.706</v>
       </c>
-      <c r="R35" t="n">
+      <c r="T35" t="n">
         <v>94.86879999999999</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>-0.5762</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>-1.5612</v>
       </c>
     </row>
@@ -2956,54 +3306,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>54559798000000</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>34254674000000</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>20305124000000</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>18786651000000</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>540699000000</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>18245952000000</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>516477000000</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
         <v>11.0351</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>-43.6173</v>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>-20.4471</v>
       </c>
-      <c r="P36" t="n">
+      <c r="R36" t="n">
         <v>2.8781</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="S36" t="n">
         <v>2.7492</v>
       </c>
-      <c r="R36" t="n">
+      <c r="T36" t="n">
         <v>97.1219</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>0.9466</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V36" t="n">
         <v>2.5436</v>
       </c>
     </row>
@@ -3028,54 +3388,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>53481478000000</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>33383445000000</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>20098033000000</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>74721629000000</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>3863774000000</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>70857855000000</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1414972000000</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
         <v>18.1145</v>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>20.9324</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>-31.4382</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R37" t="n">
         <v>5.1709</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="S37" t="n">
         <v>1.8937</v>
       </c>
-      <c r="R37" t="n">
+      <c r="T37" t="n">
         <v>94.8291</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>2.6457</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V37" t="n">
         <v>7.0404</v>
       </c>
     </row>
@@ -3100,54 +3470,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>55050923000000</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>33170602000000</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>21880321000000</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>21111389000000</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
         <v>1880482000000</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>19230907000000</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>1401001000000</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
         <v>12.238</v>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>23.9895</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>19.8312</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
         <v>8.907400000000001</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>6.6362</v>
       </c>
-      <c r="R38" t="n">
+      <c r="T38" t="n">
         <v>91.0926</v>
       </c>
-      <c r="S38" t="n">
+      <c r="U38" t="n">
         <v>2.5449</v>
       </c>
-      <c r="T38" t="n">
+      <c r="V38" t="n">
         <v>6.403</v>
       </c>
     </row>
@@ -3172,54 +3552,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
         <v>55368797000000</v>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>32115772000000</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>23253025000000</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>19464043000000</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39" t="n">
         <v>792254000000</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>18671789000000</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>338032000000</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
         <v>13.7324</v>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>-9.7811</v>
       </c>
-      <c r="O39" t="n">
+      <c r="Q39" t="n">
         <v>-215.7783</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
         <v>4.0703</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>1.7367</v>
       </c>
-      <c r="R39" t="n">
+      <c r="T39" t="n">
         <v>95.9297</v>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
         <v>0.6105</v>
       </c>
-      <c r="T39" t="n">
+      <c r="V39" t="n">
         <v>1.4537</v>
       </c>
     </row>
@@ -3244,54 +3634,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
         <v>61299428000000</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>36404183000000</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>24895245000000</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>21176765000000</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>746557000000</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>20430208000000</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>336431000000</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
         <v>12.7224</v>
       </c>
-      <c r="N40" t="n">
+      <c r="P40" t="n">
         <v>38.0726</v>
       </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>-34.8604</v>
       </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
         <v>3.5254</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="S40" t="n">
         <v>1.5887</v>
       </c>
-      <c r="R40" t="n">
+      <c r="T40" t="n">
         <v>96.4746</v>
       </c>
-      <c r="S40" t="n">
+      <c r="U40" t="n">
         <v>0.5488</v>
       </c>
-      <c r="T40" t="n">
+      <c r="V40" t="n">
         <v>1.3514</v>
       </c>
     </row>
@@ -3316,54 +3716,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
         <v>55156141000000</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>32664144000000</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>22491997000000</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>83467318000000</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41" t="n">
         <v>3550972000000</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>79916346000000</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>1863123000000</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
         <v>11.7044</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>-8.095800000000001</v>
       </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>31.6721</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R41" t="n">
         <v>4.2543</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>2.2322</v>
       </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
         <v>95.7457</v>
       </c>
-      <c r="S41" t="n">
+      <c r="U41" t="n">
         <v>3.3779</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>8.2835</v>
       </c>
     </row>
@@ -3388,54 +3798,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
         <v>57490643000000</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>34130873000000</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>23359770000000</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>20415872000000</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42" t="n">
         <v>1497388000000</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>18918484000000</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>546529000000</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
         <v>-3.2945</v>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>-20.3721</v>
       </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
         <v>-60.9901</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R42" t="n">
         <v>7.3344</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>2.677</v>
       </c>
-      <c r="R42" t="n">
+      <c r="T42" t="n">
         <v>92.6656</v>
       </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
         <v>0.9506</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V42" t="n">
         <v>2.3396</v>
       </c>
     </row>
@@ -3460,54 +3880,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
         <v>58160448000000</v>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>34608857000000</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>23551591000000</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>19998457000000</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43" t="n">
         <v>741917000000</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>19256540000000</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>195254000000</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
         <v>2.7456</v>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>-6.3536</v>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>-42.238</v>
       </c>
-      <c r="P43" t="n">
+      <c r="R43" t="n">
         <v>3.7099</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="S43" t="n">
         <v>0.9762999999999999</v>
       </c>
-      <c r="R43" t="n">
+      <c r="T43" t="n">
         <v>96.2901</v>
       </c>
-      <c r="S43" t="n">
+      <c r="U43" t="n">
         <v>0.3357</v>
       </c>
-      <c r="T43" t="n">
+      <c r="V43" t="n">
         <v>0.829</v>
       </c>
     </row>
@@ -3532,54 +3962,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>61903092000000</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>37677993000000</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>24225099000000</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>20709340000000</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44" t="n">
         <v>996660000000</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>19712680000000</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>485262000000</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
         <v>-2.2073</v>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>33.5009</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>44.2382</v>
       </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
         <v>4.8126</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="S44" t="n">
         <v>2.3432</v>
       </c>
-      <c r="R44" t="n">
+      <c r="T44" t="n">
         <v>95.1874</v>
       </c>
-      <c r="S44" t="n">
+      <c r="U44" t="n">
         <v>0.7839</v>
       </c>
-      <c r="T44" t="n">
+      <c r="V44" t="n">
         <v>2.0031</v>
       </c>
     </row>
@@ -3604,54 +4044,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
         <v>60240793000000</v>
       </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
         <v>36742257000000</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>23498536000000</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>84227765000000</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45" t="n">
         <v>3549074000000</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>80678691000000</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>1150611000000</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
         <v>0.9111</v>
       </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>-0.0535</v>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>-38.2429</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
         <v>4.2137</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>1.3661</v>
       </c>
-      <c r="R45" t="n">
+      <c r="T45" t="n">
         <v>95.7863</v>
       </c>
-      <c r="S45" t="n">
+      <c r="U45" t="n">
         <v>1.91</v>
       </c>
-      <c r="T45" t="n">
+      <c r="V45" t="n">
         <v>4.8965</v>
       </c>
     </row>
@@ -3676,54 +4126,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
         <v>61366108000000</v>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
         <v>36906703000000</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>24459405000000</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>21095949000000</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46" t="n">
         <v>1335411000000</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>19760538000000</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>585415000000</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
         <v>3.3311</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>-10.8173</v>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>7.1151</v>
       </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
         <v>6.3302</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>2.775</v>
       </c>
-      <c r="R46" t="n">
+      <c r="T46" t="n">
         <v>93.6698</v>
       </c>
-      <c r="S46" t="n">
+      <c r="U46" t="n">
         <v>0.954</v>
       </c>
-      <c r="T46" t="n">
+      <c r="V46" t="n">
         <v>2.3934</v>
       </c>
     </row>
@@ -3748,54 +4208,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
         <v>63125926000000</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>37880557000000</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>25245369000000</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>21694366000000</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47" t="n">
         <v>1196146000000</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>20498220000000</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>629470000000</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
         <v>8.4802</v>
       </c>
-      <c r="N47" t="n">
+      <c r="P47" t="n">
         <v>61.2237</v>
       </c>
-      <c r="O47" t="n">
+      <c r="Q47" t="n">
         <v>222.3852</v>
       </c>
-      <c r="P47" t="n">
+      <c r="R47" t="n">
         <v>5.5136</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="S47" t="n">
         <v>2.9015</v>
       </c>
-      <c r="R47" t="n">
+      <c r="T47" t="n">
         <v>94.4864</v>
       </c>
-      <c r="S47" t="n">
+      <c r="U47" t="n">
         <v>0.9972</v>
       </c>
-      <c r="T47" t="n">
+      <c r="V47" t="n">
         <v>2.4934</v>
       </c>
     </row>
@@ -3820,54 +4290,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
         <v>64321918000000</v>
       </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
         <v>39902594000000</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>24419324000000</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>22176370000000</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48" t="n">
         <v>751880000000</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>21424490000000</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>90234000000</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
         <v>7.0839</v>
       </c>
-      <c r="N48" t="n">
+      <c r="P48" t="n">
         <v>-24.56</v>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>-81.4051</v>
       </c>
-      <c r="P48" t="n">
+      <c r="R48" t="n">
         <v>3.3905</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="S48" t="n">
         <v>0.4069</v>
       </c>
-      <c r="R48" t="n">
+      <c r="T48" t="n">
         <v>96.6095</v>
       </c>
-      <c r="S48" t="n">
+      <c r="U48" t="n">
         <v>0.1403</v>
       </c>
-      <c r="T48" t="n">
+      <c r="V48" t="n">
         <v>0.3695</v>
       </c>
     </row>
@@ -3892,54 +4372,64 @@
           <t>실적</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v>65629589000000</v>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>40417925000000</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>25211664000000</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>87728182000000</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>3419675000000</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>84308507000000</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>591365000000</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
         <v>4.1559</v>
       </c>
-      <c r="N49" t="n">
+      <c r="P49" t="n">
         <v>-3.646</v>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>-48.6043</v>
       </c>
-      <c r="P49" t="n">
+      <c r="R49" t="n">
         <v>3.898</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="S49" t="n">
         <v>0.6741</v>
       </c>
-      <c r="R49" t="n">
+      <c r="T49" t="n">
         <v>96.102</v>
       </c>
-      <c r="S49" t="n">
+      <c r="U49" t="n">
         <v>0.9011</v>
       </c>
-      <c r="T49" t="n">
+      <c r="V49" t="n">
         <v>2.3456</v>
       </c>
     </row>
@@ -3964,54 +4454,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
         <v>66236039583771</v>
       </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
         <v>39574249299813.1</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>26747896915829.58</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>23229498785101.64</v>
       </c>
-      <c r="I50" t="n">
+      <c r="K50" t="n">
         <v>1474593672303.841</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>21754905112797.8</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>297615111341.355</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
         <v>10.1136</v>
       </c>
-      <c r="N50" t="n">
+      <c r="P50" t="n">
         <v>10.4225</v>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>-49.1617</v>
       </c>
-      <c r="P50" t="n">
+      <c r="R50" t="n">
         <v>6.3479</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="S50" t="n">
         <v>1.2812</v>
       </c>
-      <c r="R50" t="n">
+      <c r="T50" t="n">
         <v>93.6521</v>
       </c>
-      <c r="S50" t="n">
+      <c r="U50" t="n">
         <v>0.4493</v>
       </c>
-      <c r="T50" t="n">
+      <c r="V50" t="n">
         <v>1.1127</v>
       </c>
     </row>
@@ -4036,54 +4536,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
         <v>68135514367282.33</v>
       </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
         <v>40618491614755.73</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>27607397956494.84</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>23888436999944.89</v>
       </c>
-      <c r="I51" t="n">
+      <c r="K51" t="n">
         <v>1320813833906.978</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>22567623166037.91</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>320011930230.7641</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
         <v>10.1136</v>
       </c>
-      <c r="N51" t="n">
+      <c r="P51" t="n">
         <v>10.4225</v>
       </c>
-      <c r="O51" t="n">
+      <c r="Q51" t="n">
         <v>-49.1617</v>
       </c>
-      <c r="P51" t="n">
+      <c r="R51" t="n">
         <v>5.5291</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="S51" t="n">
         <v>1.3396</v>
       </c>
-      <c r="R51" t="n">
+      <c r="T51" t="n">
         <v>94.4709</v>
       </c>
-      <c r="S51" t="n">
+      <c r="U51" t="n">
         <v>0.4697</v>
       </c>
-      <c r="T51" t="n">
+      <c r="V51" t="n">
         <v>1.1592</v>
       </c>
     </row>
@@ -4108,54 +4618,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
         <v>69426418679706.27</v>
       </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
         <v>42786677603394.33</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
         <v>26704065822788.54</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J52" t="n">
         <v>24419188725426.13</v>
       </c>
-      <c r="I52" t="n">
+      <c r="K52" t="n">
         <v>830244389429.0314</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>23588944335997.1</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>45873443551.6272</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
         <v>10.1136</v>
       </c>
-      <c r="N52" t="n">
+      <c r="P52" t="n">
         <v>10.4225</v>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>-49.1617</v>
       </c>
-      <c r="P52" t="n">
+      <c r="R52" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="S52" t="n">
         <v>0.1879</v>
       </c>
-      <c r="R52" t="n">
+      <c r="T52" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="S52" t="n">
+      <c r="U52" t="n">
         <v>0.06610000000000001</v>
       </c>
-      <c r="T52" t="n">
+      <c r="V52" t="n">
         <v>0.1718</v>
       </c>
     </row>
@@ -4180,54 +4700,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
         <v>70837864686980.34</v>
       </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
         <v>43339255747963.95</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I53" t="n">
         <v>27570539420257.02</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>96600617359672.98</v>
       </c>
-      <c r="I53" t="n">
+      <c r="K53" t="n">
         <v>3776089246183.863</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>92824528113489.12</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>300639990977.9907</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
         <v>10.1136</v>
       </c>
-      <c r="N53" t="n">
+      <c r="P53" t="n">
         <v>10.4225</v>
       </c>
-      <c r="O53" t="n">
+      <c r="Q53" t="n">
         <v>-49.1617</v>
       </c>
-      <c r="P53" t="n">
+      <c r="R53" t="n">
         <v>3.909</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="S53" t="n">
         <v>0.3112</v>
       </c>
-      <c r="R53" t="n">
+      <c r="T53" t="n">
         <v>96.09099999999999</v>
       </c>
-      <c r="S53" t="n">
+      <c r="U53" t="n">
         <v>0.4244</v>
       </c>
-      <c r="T53" t="n">
+      <c r="V53" t="n">
         <v>1.0904</v>
       </c>
     </row>
@@ -4252,54 +4782,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
         <v>71492442371331.08</v>
       </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
         <v>42434600772758.21</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I54" t="n">
         <v>29250506683210.22</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J54" t="n">
         <v>25578826238489.62</v>
       </c>
-      <c r="I54" t="n">
+      <c r="K54" t="n">
         <v>1628282602433.654</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>23950543636055.96</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>151302502496.0535</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
         <v>10.1136</v>
       </c>
-      <c r="N54" t="n">
+      <c r="P54" t="n">
         <v>10.4225</v>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>-49.1617</v>
       </c>
-      <c r="P54" t="n">
+      <c r="R54" t="n">
         <v>6.3657</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="S54" t="n">
         <v>0.5915</v>
       </c>
-      <c r="R54" t="n">
+      <c r="T54" t="n">
         <v>93.6343</v>
       </c>
-      <c r="S54" t="n">
+      <c r="U54" t="n">
         <v>0.2116</v>
       </c>
-      <c r="T54" t="n">
+      <c r="V54" t="n">
         <v>0.5173</v>
       </c>
     </row>
@@ -4324,54 +4864,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
         <v>73542656912377.59</v>
       </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
         <v>43554318936175.67</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>30190425100471.91</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J55" t="n">
         <v>26304406512747.88</v>
       </c>
-      <c r="I55" t="n">
+      <c r="K55" t="n">
         <v>1458475122468.368</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>24845931390279.51</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>162688667434.5393</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
         <v>10.1136</v>
       </c>
-      <c r="N55" t="n">
+      <c r="P55" t="n">
         <v>10.4225</v>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>-49.1617</v>
       </c>
-      <c r="P55" t="n">
+      <c r="R55" t="n">
         <v>5.5446</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="S55" t="n">
         <v>0.6185</v>
       </c>
-      <c r="R55" t="n">
+      <c r="T55" t="n">
         <v>94.4554</v>
       </c>
-      <c r="S55" t="n">
+      <c r="U55" t="n">
         <v>0.2212</v>
       </c>
-      <c r="T55" t="n">
+      <c r="V55" t="n">
         <v>0.5389</v>
       </c>
     </row>
@@ -4396,54 +4946,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
         <v>74936005650358.06</v>
       </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
         <v>45879217284390.23</v>
       </c>
-      <c r="G56" t="n">
+      <c r="I56" t="n">
         <v>29202574627693.34</v>
       </c>
-      <c r="H56" t="n">
+      <c r="J56" t="n">
         <v>26888836090305.96</v>
       </c>
-      <c r="I56" t="n">
+      <c r="K56" t="n">
         <v>916776275706.7419</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>25972059814599.22</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>23321284917.9281</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
         <v>10.1136</v>
       </c>
-      <c r="N56" t="n">
+      <c r="P56" t="n">
         <v>10.4225</v>
       </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
         <v>-49.1617</v>
       </c>
-      <c r="P56" t="n">
+      <c r="R56" t="n">
         <v>3.4095</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="S56" t="n">
         <v>0.0867</v>
       </c>
-      <c r="R56" t="n">
+      <c r="T56" t="n">
         <v>96.59050000000001</v>
       </c>
-      <c r="S56" t="n">
+      <c r="U56" t="n">
         <v>0.0311</v>
       </c>
-      <c r="T56" t="n">
+      <c r="V56" t="n">
         <v>0.0799</v>
       </c>
     </row>
@@ -4468,54 +5028,64 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
         <v>76459462109551.48</v>
       </c>
-      <c r="F57" t="n">
+      <c r="H57" t="n">
         <v>46471734726298.45</v>
       </c>
-      <c r="G57" t="n">
+      <c r="I57" t="n">
         <v>30150117974122.86</v>
       </c>
-      <c r="H57" t="n">
+      <c r="J57" t="n">
         <v>106370371088619.5</v>
       </c>
-      <c r="I57" t="n">
+      <c r="K57" t="n">
         <v>4169650623274.263</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>102200720465345.3</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>152840300280.2776</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>흑자</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
         <v>10.1136</v>
       </c>
-      <c r="N57" t="n">
+      <c r="P57" t="n">
         <v>10.4225</v>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>-49.1617</v>
       </c>
-      <c r="P57" t="n">
+      <c r="R57" t="n">
         <v>3.9199</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="S57" t="n">
         <v>0.1437</v>
       </c>
-      <c r="R57" t="n">
+      <c r="T57" t="n">
         <v>96.0801</v>
       </c>
-      <c r="S57" t="n">
+      <c r="U57" t="n">
         <v>0.1999</v>
       </c>
-      <c r="T57" t="n">
+      <c r="V57" t="n">
         <v>0.5069</v>
       </c>
     </row>
